--- a/total_res/ST14_output.xlsx
+++ b/total_res/ST14_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M782"/>
+  <dimension ref="A1:N782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>real_quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>percent</t>
         </is>
       </c>
@@ -538,10 +543,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -595,6 +609,9 @@
         <v>0.8299999999999841</v>
       </c>
       <c r="M3" t="n">
+        <v>0.7546350999999841</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -650,6 +667,9 @@
         <v>0.3100000000000023</v>
       </c>
       <c r="M4" t="n">
+        <v>0.2347859000000023</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -705,6 +725,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M5" t="n">
+        <v>0.02493800000002271</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -760,6 +783,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M6" t="n">
+        <v>-0.1949346000000045</v>
+      </c>
+      <c r="N6" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -815,6 +841,9 @@
         <v>-0.02999999999997272</v>
       </c>
       <c r="M7" t="n">
+        <v>-0.1048838999999727</v>
+      </c>
+      <c r="N7" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -870,6 +899,9 @@
         <v>0.3599999999999568</v>
       </c>
       <c r="M8" t="n">
+        <v>0.2851771999999568</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -925,6 +957,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M9" t="n">
+        <v>-0.09478800000000226</v>
+      </c>
+      <c r="N9" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -980,6 +1015,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M10" t="n">
+        <v>-0.1247815000000034</v>
+      </c>
+      <c r="N10" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1035,6 +1073,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M11" t="n">
+        <v>-0.1046514999999932</v>
+      </c>
+      <c r="N11" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1090,6 +1131,9 @@
         <v>-0.2699999999999818</v>
       </c>
       <c r="M12" t="n">
+        <v>-0.3045474999999818</v>
+      </c>
+      <c r="N12" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1145,6 +1189,9 @@
         <v>-0.1899999999999977</v>
       </c>
       <c r="M13" t="n">
+        <v>-0.2245266999999977</v>
+      </c>
+      <c r="N13" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1200,6 +1247,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M14" t="n">
+        <v>-0.1546944000000045</v>
+      </c>
+      <c r="N14" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1255,6 +1305,9 @@
         <v>0.01000000000001933</v>
       </c>
       <c r="M15" t="n">
+        <v>-0.02470609999998067</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1310,6 +1363,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M16" t="n">
+        <v>-0.2344967999999886</v>
+      </c>
+      <c r="N16" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1365,6 +1421,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M17" t="n">
+        <v>0.0655422000000227</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1420,6 +1479,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M18" t="n">
+        <v>-0.1044512999999932</v>
+      </c>
+      <c r="N18" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1475,6 +1537,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M19" t="n">
+        <v>-0.08445130000001136</v>
+      </c>
+      <c r="N19" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1530,6 +1595,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M20" t="n">
+        <v>-0.1344941999999943</v>
+      </c>
+      <c r="N20" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1585,6 +1653,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M21" t="n">
+        <v>-0.0443862999999909</v>
+      </c>
+      <c r="N21" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1640,6 +1711,9 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="M22" t="n">
+        <v>-0.08438109999998294</v>
+      </c>
+      <c r="N22" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1695,6 +1769,9 @@
         <v>0.289999999999992</v>
       </c>
       <c r="M23" t="n">
+        <v>0.255660499999992</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1750,6 +1827,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M24" t="n">
+        <v>-0.09432780000000227</v>
+      </c>
+      <c r="N24" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1805,6 +1885,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M25" t="n">
+        <v>-0.06431870000000114</v>
+      </c>
+      <c r="N25" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1860,6 +1943,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M26" t="n">
+        <v>-0.0443134999999909</v>
+      </c>
+      <c r="N26" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1915,6 +2001,9 @@
         <v>2.5</v>
       </c>
       <c r="M27" t="n">
+        <v>0.7436350000000003</v>
+      </c>
+      <c r="N27" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1970,6 +2059,9 @@
         <v>14.5</v>
       </c>
       <c r="M28" t="n">
+        <v>12.743895</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2025,6 +2117,9 @@
         <v>18</v>
       </c>
       <c r="M29" t="n">
+        <v>16.24435</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2080,6 +2175,9 @@
         <v>-18.5</v>
       </c>
       <c r="M30" t="n">
+        <v>-20.250905</v>
+      </c>
+      <c r="N30" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2135,6 +2233,9 @@
         <v>13</v>
       </c>
       <c r="M31" t="n">
+        <v>11.25215</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2190,6 +2291,9 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
+        <v>-0.7432999999999998</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2245,6 +2349,9 @@
         <v>1.5</v>
       </c>
       <c r="M33" t="n">
+        <v>-0.2420649999999999</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2300,6 +2407,9 @@
         <v>0.5</v>
       </c>
       <c r="M34" t="n">
+        <v>-1.241285</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2355,6 +2465,9 @@
         <v>-1</v>
       </c>
       <c r="M35" t="n">
+        <v>-2.74122</v>
+      </c>
+      <c r="N35" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2410,6 +2523,9 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>-1.7394</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,6 +2581,9 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>-1.73914</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2520,6 +2639,9 @@
         <v>-2.5</v>
       </c>
       <c r="M38" t="n">
+        <v>-4.238555</v>
+      </c>
+      <c r="N38" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2575,6 +2697,9 @@
         <v>-2</v>
       </c>
       <c r="M39" t="n">
+        <v>-3.73836</v>
+      </c>
+      <c r="N39" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2630,6 +2755,9 @@
         <v>-1</v>
       </c>
       <c r="M40" t="n">
+        <v>-2.73836</v>
+      </c>
+      <c r="N40" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2685,6 +2813,9 @@
         <v>-1</v>
       </c>
       <c r="M41" t="n">
+        <v>-2.73836</v>
+      </c>
+      <c r="N41" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2740,6 +2871,9 @@
         <v>0.6999999999999318</v>
       </c>
       <c r="M42" t="n">
+        <v>0.5659179999999318</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2795,6 +2929,9 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="M43" t="n">
+        <v>0.0157684999999773</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2850,6 +2987,9 @@
         <v>-0.04999999999995453</v>
       </c>
       <c r="M44" t="n">
+        <v>-0.1842964999999545</v>
+      </c>
+      <c r="N44" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2905,6 +3045,9 @@
         <v>0.05000000000006821</v>
       </c>
       <c r="M45" t="n">
+        <v>-0.08372449999993177</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2960,6 +3103,9 @@
         <v>-0.1500000000000909</v>
       </c>
       <c r="M46" t="n">
+        <v>-0.2836075000000909</v>
+      </c>
+      <c r="N46" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3015,6 +3161,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M47" t="n">
+        <v>-0.5334839999999773</v>
+      </c>
+      <c r="N47" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3070,6 +3219,9 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="M48" t="n">
+        <v>-0.08332150000004546</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3125,6 +3277,9 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
+        <v>-0.133263</v>
+      </c>
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3180,6 +3335,9 @@
         <v>0.4499999999999318</v>
       </c>
       <c r="M50" t="n">
+        <v>0.3167954999999318</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3235,6 +3393,9 @@
         <v>-0.4500000000000455</v>
       </c>
       <c r="M51" t="n">
+        <v>-0.5830225000000454</v>
+      </c>
+      <c r="N51" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3290,6 +3451,9 @@
         <v>-0.6500000000000341</v>
       </c>
       <c r="M52" t="n">
+        <v>-0.781501500000034</v>
+      </c>
+      <c r="N52" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3345,6 +3509,9 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="M53" t="n">
+        <v>-0.2814754999999773</v>
+      </c>
+      <c r="N53" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3400,6 +3567,9 @@
         <v>0.5600000000000023</v>
       </c>
       <c r="M54" t="n">
+        <v>0.4993134000000022</v>
+      </c>
+      <c r="N54" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3455,6 +3625,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M55" t="n">
+        <v>-0.0705708999999909</v>
+      </c>
+      <c r="N55" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -3510,6 +3683,9 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="M56" t="n">
+        <v>-0.5106618999999886</v>
+      </c>
+      <c r="N56" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3565,6 +3741,9 @@
         <v>-0.7000000000000171</v>
       </c>
       <c r="M57" t="n">
+        <v>-0.7602498000000171</v>
+      </c>
+      <c r="N57" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3620,6 +3799,9 @@
         <v>1.150000000000006</v>
       </c>
       <c r="M58" t="n">
+        <v>1.090258500000006</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3675,6 +3857,9 @@
         <v>4.800000000000182</v>
       </c>
       <c r="M59" t="n">
+        <v>4.527520000000182</v>
+      </c>
+      <c r="N59" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3730,6 +3915,9 @@
         <v>1</v>
       </c>
       <c r="M60" t="n">
+        <v>0.7267140000000001</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3785,6 +3973,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M61" t="n">
+        <v>-1.473468000000045</v>
+      </c>
+      <c r="N61" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3840,6 +4031,9 @@
         <v>-0.3999999999998636</v>
       </c>
       <c r="M62" t="n">
+        <v>-0.6736239999998636</v>
+      </c>
+      <c r="N62" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3895,6 +4089,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M63" t="n">
+        <v>-1.471804000000045</v>
+      </c>
+      <c r="N63" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3950,6 +4147,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M64" t="n">
+        <v>-1.871439999999909</v>
+      </c>
+      <c r="N64" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -4005,6 +4205,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M65" t="n">
+        <v>0.1288720000000909</v>
+      </c>
+      <c r="N65" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4060,6 +4263,9 @@
         <v>2.200000000000045</v>
       </c>
       <c r="M66" t="n">
+        <v>1.930146000000045</v>
+      </c>
+      <c r="N66" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4115,6 +4321,9 @@
         <v>1.200000000000045</v>
       </c>
       <c r="M67" t="n">
+        <v>0.931576000000045</v>
+      </c>
+      <c r="N67" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4170,6 +4379,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M68" t="n">
+        <v>-0.4685020000000454</v>
+      </c>
+      <c r="N68" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4225,6 +4437,9 @@
         <v>3.599999999999909</v>
       </c>
       <c r="M69" t="n">
+        <v>3.331991999999909</v>
+      </c>
+      <c r="N69" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4280,6 +4495,9 @@
         <v>-0.3999999999998636</v>
       </c>
       <c r="M70" t="n">
+        <v>-0.6674359999998636</v>
+      </c>
+      <c r="N70" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4335,6 +4553,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M71" t="n">
+        <v>0.1661531999999886</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4390,6 +4611,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M72" t="n">
+        <v>-0.2136726000000068</v>
+      </c>
+      <c r="N72" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4445,6 +4669,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M73" t="n">
+        <v>-0.1736102000000148</v>
+      </c>
+      <c r="N73" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4500,6 +4727,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M74" t="n">
+        <v>-0.2937193999999909</v>
+      </c>
+      <c r="N74" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4555,6 +4785,9 @@
         <v>-0.07999999999998408</v>
       </c>
       <c r="M75" t="n">
+        <v>-0.1137427999999841</v>
+      </c>
+      <c r="N75" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4610,6 +4843,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M76" t="n">
+        <v>0.1262259999999966</v>
+      </c>
+      <c r="N76" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4665,6 +4901,9 @@
         <v>-0.4399999999999977</v>
       </c>
       <c r="M77" t="n">
+        <v>-0.4736699999999977</v>
+      </c>
+      <c r="N77" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -4720,6 +4959,9 @@
         <v>-0.3400000000000034</v>
       </c>
       <c r="M78" t="n">
+        <v>-0.3735166000000034</v>
+      </c>
+      <c r="N78" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -4775,6 +5017,9 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="M79" t="n">
+        <v>0.2665769999999829</v>
+      </c>
+      <c r="N79" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4830,6 +5075,9 @@
         <v>-0.6800000000000068</v>
       </c>
       <c r="M80" t="n">
+        <v>-0.7234096000000069</v>
+      </c>
+      <c r="N80" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -4885,6 +5133,9 @@
         <v>0.3799999999999955</v>
       </c>
       <c r="M81" t="n">
+        <v>0.3369777999999955</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4940,6 +5191,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M82" t="n">
+        <v>-0.06293900000001022</v>
+      </c>
+      <c r="N82" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -4995,6 +5249,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M83" t="n">
+        <v>0.05708179999999431</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5050,6 +5307,9 @@
         <v>0.1399999999999864</v>
       </c>
       <c r="M84" t="n">
+        <v>0.09713379999998642</v>
+      </c>
+      <c r="N84" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5105,6 +5365,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M85" t="n">
+        <v>-0.2427283999999886</v>
+      </c>
+      <c r="N85" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -5160,6 +5423,9 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="M86" t="n">
+        <v>0.1367880999999986</v>
+      </c>
+      <c r="N86" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -5215,6 +5481,9 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="M87" t="n">
+        <v>0.06179784999999574</v>
+      </c>
+      <c r="N87" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -5270,6 +5539,9 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="M88" t="n">
+        <v>-0.1632314000000057</v>
+      </c>
+      <c r="N88" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -5325,6 +5597,9 @@
         <v>-0.1100000000000065</v>
       </c>
       <c r="M89" t="n">
+        <v>-0.1232366000000065</v>
+      </c>
+      <c r="N89" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -5380,6 +5655,9 @@
         <v>-0.05999999999999517</v>
       </c>
       <c r="M90" t="n">
+        <v>-0.07323269999999517</v>
+      </c>
+      <c r="N90" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -5435,6 +5713,9 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="M91" t="n">
+        <v>-0.06321450000000425</v>
+      </c>
+      <c r="N91" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -5490,6 +5771,9 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="M92" t="n">
+        <v>-0.01820734999999545</v>
+      </c>
+      <c r="N92" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5545,6 +5829,9 @@
         <v>0.1450000000000031</v>
       </c>
       <c r="M93" t="n">
+        <v>0.1317692500000031</v>
+      </c>
+      <c r="N93" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -5600,6 +5887,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M94" t="n">
+        <v>0.1267699000000006</v>
+      </c>
+      <c r="N94" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -5655,6 +5945,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M95" t="n">
+        <v>0.09676599999999941</v>
+      </c>
+      <c r="N95" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -5710,6 +6003,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M96" t="n">
+        <v>-0.04321580000000114</v>
+      </c>
+      <c r="N96" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5765,6 +6061,9 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="M97" t="n">
+        <v>0.01181604999999858</v>
+      </c>
+      <c r="N97" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -5820,6 +6119,9 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="M98" t="n">
+        <v>-0.01817874999999545</v>
+      </c>
+      <c r="N98" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5875,6 +6177,9 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="M99" t="n">
+        <v>0.01185114999999858</v>
+      </c>
+      <c r="N99" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -5930,6 +6235,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M100" t="n">
+        <v>-0.02314820000000512</v>
+      </c>
+      <c r="N100" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -5985,6 +6293,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M101" t="n">
+        <v>-0.7684720000000909</v>
+      </c>
+      <c r="N101" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6040,6 +6351,9 @@
         <v>1</v>
       </c>
       <c r="M102" t="n">
+        <v>0.631918</v>
+      </c>
+      <c r="N102" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -6095,6 +6409,9 @@
         <v>1.599999999999909</v>
       </c>
       <c r="M103" t="n">
+        <v>1.231319999999909</v>
+      </c>
+      <c r="N103" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -6150,6 +6467,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M104" t="n">
+        <v>-0.5689140000000454</v>
+      </c>
+      <c r="N104" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -6205,6 +6525,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M105" t="n">
+        <v>-0.968341999999909</v>
+      </c>
+      <c r="N105" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -6260,6 +6583,9 @@
         <v>-0.3999999999998636</v>
       </c>
       <c r="M106" t="n">
+        <v>-0.7683159999998636</v>
+      </c>
+      <c r="N106" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6315,6 +6641,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M107" t="n">
+        <v>-0.1681859999999545</v>
+      </c>
+      <c r="N107" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -6370,6 +6699,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M108" t="n">
+        <v>-0.7681080000000908</v>
+      </c>
+      <c r="N108" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6425,6 +6757,9 @@
         <v>1</v>
       </c>
       <c r="M109" t="n">
+        <v>0.632282</v>
+      </c>
+      <c r="N109" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -6480,6 +6815,9 @@
         <v>-0.6000000000001364</v>
       </c>
       <c r="M110" t="n">
+        <v>-0.9673540000001364</v>
+      </c>
+      <c r="N110" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -6535,6 +6873,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M111" t="n">
+        <v>-0.5673540000000454</v>
+      </c>
+      <c r="N111" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -6590,6 +6931,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M112" t="n">
+        <v>-0.766912000000091</v>
+      </c>
+      <c r="N112" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6645,6 +6989,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M113" t="n">
+        <v>-0.1258976999999994</v>
+      </c>
+      <c r="N113" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -6700,6 +7047,9 @@
         <v>0.1799999999999997</v>
       </c>
       <c r="M114" t="n">
+        <v>0.1640411999999997</v>
+      </c>
+      <c r="N114" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -6755,6 +7105,9 @@
         <v>0.3000000000000043</v>
       </c>
       <c r="M115" t="n">
+        <v>0.2840906000000044</v>
+      </c>
+      <c r="N115" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -6810,6 +7163,9 @@
         <v>0.1700000000000017</v>
       </c>
       <c r="M116" t="n">
+        <v>0.1542037000000017</v>
+      </c>
+      <c r="N116" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -6865,6 +7221,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M117" t="n">
+        <v>-0.05574299999999915</v>
+      </c>
+      <c r="N117" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -6920,6 +7279,9 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
+        <v>-0.0157378</v>
+      </c>
+      <c r="N118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6975,6 +7337,9 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
+        <v>-0.0157352</v>
+      </c>
+      <c r="N119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7030,6 +7395,9 @@
         <v>0.09000000000000341</v>
       </c>
       <c r="M120" t="n">
+        <v>0.07462750000000341</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -7085,6 +7453,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M121" t="n">
+        <v>-0.1052347000000034</v>
+      </c>
+      <c r="N121" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -7140,6 +7511,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M122" t="n">
+        <v>0.01479390000000114</v>
+      </c>
+      <c r="N122" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -7195,6 +7569,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M123" t="n">
+        <v>0.0948120999999994</v>
+      </c>
+      <c r="N123" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -7250,6 +7627,9 @@
         <v>0.0800000000000054</v>
       </c>
       <c r="M124" t="n">
+        <v>0.06486800000000541</v>
+      </c>
+      <c r="N124" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -7305,6 +7685,9 @@
         <v>-0.2999999999999972</v>
       </c>
       <c r="M125" t="n">
+        <v>-0.3151189999999972</v>
+      </c>
+      <c r="N125" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -7360,6 +7743,9 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="M126" t="n">
+        <v>-0.08506310000000029</v>
+      </c>
+      <c r="N126" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -7415,6 +7801,9 @@
         <v>0.05000000000000426</v>
       </c>
       <c r="M127" t="n">
+        <v>0.03495770000000426</v>
+      </c>
+      <c r="N127" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -7470,6 +7859,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M128" t="n">
+        <v>-0.04503970000000114</v>
+      </c>
+      <c r="N128" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -7525,6 +7917,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M129" t="n">
+        <v>-0.03500719999999602</v>
+      </c>
+      <c r="N129" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -7580,6 +7975,9 @@
         <v>0.5</v>
       </c>
       <c r="M130" t="n">
+        <v>0.4850864</v>
+      </c>
+      <c r="N130" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -7635,6 +8033,9 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
+        <v>-0.0376532</v>
+      </c>
+      <c r="N131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7690,6 +8091,9 @@
         <v>-0.5</v>
       </c>
       <c r="M132" t="n">
+        <v>-0.5378326</v>
+      </c>
+      <c r="N132" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -7745,6 +8149,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M133" t="n">
+        <v>-0.09788980000000226</v>
+      </c>
+      <c r="N133" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -7800,6 +8207,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M134" t="n">
+        <v>-0.1178924000000125</v>
+      </c>
+      <c r="N134" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -7855,6 +8265,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M135" t="n">
+        <v>-0.2178794000000068</v>
+      </c>
+      <c r="N135" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -7910,6 +8323,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M136" t="n">
+        <v>-0.09786380000000226</v>
+      </c>
+      <c r="N136" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -7965,6 +8381,9 @@
         <v>-0.07999999999998408</v>
       </c>
       <c r="M137" t="n">
+        <v>-0.1178611999999841</v>
+      </c>
+      <c r="N137" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -8020,6 +8439,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M138" t="n">
+        <v>-0.07784039999999204</v>
+      </c>
+      <c r="N138" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -8075,6 +8497,9 @@
         <v>0.5800000000000125</v>
       </c>
       <c r="M139" t="n">
+        <v>0.5421674000000125</v>
+      </c>
+      <c r="N139" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -8130,6 +8555,9 @@
         <v>-0.1199999999999761</v>
       </c>
       <c r="M140" t="n">
+        <v>-0.1579235999999761</v>
+      </c>
+      <c r="N140" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -8185,6 +8613,9 @@
         <v>-0.1199999999999761</v>
       </c>
       <c r="M141" t="n">
+        <v>-0.1579235999999761</v>
+      </c>
+      <c r="N141" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -8240,6 +8671,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M142" t="n">
+        <v>-0.1379106000000227</v>
+      </c>
+      <c r="N142" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -8295,6 +8729,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M143" t="n">
+        <v>-0.09794180000000226</v>
+      </c>
+      <c r="N143" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -8350,6 +8787,9 @@
         <v>-0.6799999999999784</v>
       </c>
       <c r="M144" t="n">
+        <v>-0.7175335999999785</v>
+      </c>
+      <c r="N144" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -8405,6 +8845,9 @@
         <v>-0.1199999999999761</v>
       </c>
       <c r="M145" t="n">
+        <v>-0.1574607999999761</v>
+      </c>
+      <c r="N145" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -8460,6 +8903,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M146" t="n">
+        <v>0.02257300000000227</v>
+      </c>
+      <c r="N146" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -8515,6 +8961,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M147" t="n">
+        <v>-0.09742700000000226</v>
+      </c>
+      <c r="N147" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -8570,6 +9019,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M148" t="n">
+        <v>0.1226483999999966</v>
+      </c>
+      <c r="N148" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -8625,6 +9077,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M149" t="n">
+        <v>-0.09731780000000226</v>
+      </c>
+      <c r="N149" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -8680,6 +9135,9 @@
         <v>-0.02700000000000102</v>
       </c>
       <c r="M150" t="n">
+        <v>-0.03257999000000102</v>
+      </c>
+      <c r="N150" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -8735,6 +9193,9 @@
         <v>-0.03200000000000003</v>
       </c>
       <c r="M151" t="n">
+        <v>-0.03757362000000003</v>
+      </c>
+      <c r="N151" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -8790,6 +9251,9 @@
         <v>-0.03500000000000014</v>
       </c>
       <c r="M152" t="n">
+        <v>-0.04056777000000014</v>
+      </c>
+      <c r="N152" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -8845,6 +9309,9 @@
         <v>-0.04900000000000304</v>
       </c>
       <c r="M153" t="n">
+        <v>-0.05452955000000304</v>
+      </c>
+      <c r="N153" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -8900,6 +9367,9 @@
         <v>0.04899999999999949</v>
       </c>
       <c r="M154" t="n">
+        <v>0.04348344999999949</v>
+      </c>
+      <c r="N154" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -8955,6 +9425,9 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="M155" t="n">
+        <v>-0.01048092999999901</v>
+      </c>
+      <c r="N155" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -9010,6 +9483,9 @@
         <v>-0.009000000000000341</v>
       </c>
       <c r="M156" t="n">
+        <v>-0.01447807000000034</v>
+      </c>
+      <c r="N156" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -9065,6 +9541,9 @@
         <v>0.1630000000000003</v>
       </c>
       <c r="M157" t="n">
+        <v>0.1575661300000003</v>
+      </c>
+      <c r="N157" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -9120,6 +9599,9 @@
         <v>1.25</v>
       </c>
       <c r="M158" t="n">
+        <v>1.0724785</v>
+      </c>
+      <c r="N158" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -9175,6 +9657,9 @@
         <v>0.3999999999999773</v>
       </c>
       <c r="M159" t="n">
+        <v>0.2225759999999773</v>
+      </c>
+      <c r="N159" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -9230,6 +9715,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M160" t="n">
+        <v>-0.3774110000000455</v>
+      </c>
+      <c r="N160" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -9285,6 +9773,9 @@
         <v>-0.2999999999999545</v>
       </c>
       <c r="M161" t="n">
+        <v>-0.4774109999999545</v>
+      </c>
+      <c r="N161" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -9340,6 +9831,9 @@
         <v>-0.1500000000000909</v>
       </c>
       <c r="M162" t="n">
+        <v>-0.3274175000000908</v>
+      </c>
+      <c r="N162" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -9395,6 +9889,9 @@
         <v>1.049999999999955</v>
       </c>
       <c r="M163" t="n">
+        <v>0.872751499999955</v>
+      </c>
+      <c r="N163" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -9450,6 +9947,9 @@
         <v>-0.9499999999999318</v>
       </c>
       <c r="M164" t="n">
+        <v>-1.127209499999932</v>
+      </c>
+      <c r="N164" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -9505,6 +10005,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M165" t="n">
+        <v>-0.2772160000000227</v>
+      </c>
+      <c r="N165" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -9560,6 +10063,9 @@
         <v>-0.3000000000000682</v>
       </c>
       <c r="M166" t="n">
+        <v>-0.4772420000000682</v>
+      </c>
+      <c r="N166" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -9615,6 +10121,9 @@
         <v>0.75</v>
       </c>
       <c r="M167" t="n">
+        <v>0.5730375</v>
+      </c>
+      <c r="N167" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -9670,6 +10179,9 @@
         <v>-0.05000000000006821</v>
       </c>
       <c r="M168" t="n">
+        <v>-0.2266895000000682</v>
+      </c>
+      <c r="N168" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -9725,6 +10237,9 @@
         <v>0.8500000000000227</v>
       </c>
       <c r="M169" t="n">
+        <v>0.6735445000000228</v>
+      </c>
+      <c r="N169" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -9780,6 +10295,9 @@
         <v>-0.6000000000000227</v>
       </c>
       <c r="M170" t="n">
+        <v>-0.7763190000000227</v>
+      </c>
+      <c r="N170" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -9827,6 +10345,9 @@
         <v>0</v>
       </c>
       <c r="M171" t="n">
+        <v>-0.0221832</v>
+      </c>
+      <c r="N171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9874,6 +10395,9 @@
         <v>0</v>
       </c>
       <c r="M172" t="n">
+        <v>-0.0985998</v>
+      </c>
+      <c r="N172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9929,6 +10453,9 @@
         <v>-0.0005200000000000066</v>
       </c>
       <c r="M173" t="n">
+        <v>-0.0005458336000000065</v>
+      </c>
+      <c r="N173" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -9984,6 +10511,9 @@
         <v>-0.0006599999999999939</v>
       </c>
       <c r="M174" t="n">
+        <v>-0.0006858517999999939</v>
+      </c>
+      <c r="N174" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -10039,6 +10569,9 @@
         <v>1.999999999999225e-05</v>
       </c>
       <c r="M175" t="n">
+        <v>-5.84140000000775e-06</v>
+      </c>
+      <c r="N175" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -10094,6 +10627,9 @@
         <v>-2.000000000000612e-05</v>
       </c>
       <c r="M176" t="n">
+        <v>-4.583620000000613e-05</v>
+      </c>
+      <c r="N176" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -10149,6 +10685,9 @@
         <v>-0.0001599999999999935</v>
       </c>
       <c r="M177" t="n">
+        <v>-0.0001860571999999935</v>
+      </c>
+      <c r="N177" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -10204,6 +10743,9 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
+        <v>-2.6078e-05</v>
+      </c>
+      <c r="N178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10259,6 +10801,9 @@
         <v>-0.0002000000000000057</v>
       </c>
       <c r="M179" t="n">
+        <v>-0.0002260624000000057</v>
+      </c>
+      <c r="N179" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -10314,6 +10859,9 @@
         <v>-9.999999999998899e-05</v>
       </c>
       <c r="M180" t="n">
+        <v>-0.000126064999999989</v>
+      </c>
+      <c r="N180" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -10369,6 +10917,9 @@
         <v>0</v>
       </c>
       <c r="M181" t="n">
+        <v>-2.60884e-05</v>
+      </c>
+      <c r="N181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10424,6 +10975,9 @@
         <v>-6.000000000000449e-05</v>
       </c>
       <c r="M182" t="n">
+        <v>-8.609100000000449e-05</v>
+      </c>
+      <c r="N182" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -10479,6 +11033,9 @@
         <v>0.0002800000000000025</v>
       </c>
       <c r="M183" t="n">
+        <v>0.0002538596000000025</v>
+      </c>
+      <c r="N183" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -10534,6 +11091,9 @@
         <v>-0.0002200000000000119</v>
       </c>
       <c r="M184" t="n">
+        <v>-0.0002460026000000119</v>
+      </c>
+      <c r="N184" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -10589,6 +11149,9 @@
         <v>-0.0001000000000000029</v>
       </c>
       <c r="M185" t="n">
+        <v>-0.0001259870000000029</v>
+      </c>
+      <c r="N185" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -10644,6 +11207,9 @@
         <v>-8.000000000001062e-05</v>
       </c>
       <c r="M186" t="n">
+        <v>-0.0001059844000000106</v>
+      </c>
+      <c r="N186" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -10699,6 +11265,9 @@
         <v>-8.000000000001062e-05</v>
       </c>
       <c r="M187" t="n">
+        <v>-0.0001059844000000106</v>
+      </c>
+      <c r="N187" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -10754,6 +11323,9 @@
         <v>0</v>
       </c>
       <c r="M188" t="n">
+        <v>-2.5974e-05</v>
+      </c>
+      <c r="N188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10809,6 +11381,9 @@
         <v>-0.000219999999999998</v>
       </c>
       <c r="M189" t="n">
+        <v>-0.000245940199999998</v>
+      </c>
+      <c r="N189" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -10864,6 +11439,9 @@
         <v>-0.000219999999999998</v>
       </c>
       <c r="M190" t="n">
+        <v>-0.000245940199999998</v>
+      </c>
+      <c r="N190" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -10919,6 +11497,9 @@
         <v>0</v>
       </c>
       <c r="M191" t="n">
+        <v>-2.587e-05</v>
+      </c>
+      <c r="N191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10974,6 +11555,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M192" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N192" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -11029,6 +11613,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M193" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N193" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -11084,6 +11671,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M194" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N194" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -11139,6 +11729,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M195" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N195" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -11194,6 +11787,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M196" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N196" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -11249,6 +11845,9 @@
         <v>-0.001499999999999946</v>
       </c>
       <c r="M197" t="n">
+        <v>-0.001657858999999946</v>
+      </c>
+      <c r="N197" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -11304,6 +11903,9 @@
         <v>-0.0003999999999999559</v>
       </c>
       <c r="M198" t="n">
+        <v>-0.0005579499999999559</v>
+      </c>
+      <c r="N198" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -11359,6 +11961,9 @@
         <v>0.00109999999999999</v>
       </c>
       <c r="M199" t="n">
+        <v>0.00094224499999999</v>
+      </c>
+      <c r="N199" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -11414,6 +12019,9 @@
         <v>-0.001300000000000079</v>
       </c>
       <c r="M200" t="n">
+        <v>-0.001457443000000079</v>
+      </c>
+      <c r="N200" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -11469,6 +12077,9 @@
         <v>0.001000000000000001</v>
       </c>
       <c r="M201" t="n">
+        <v>0.0008432200000000012</v>
+      </c>
+      <c r="N201" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -11524,6 +12135,9 @@
         <v>-0.000199999999999978</v>
       </c>
       <c r="M202" t="n">
+        <v>-0.000356649999999978</v>
+      </c>
+      <c r="N202" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -11579,6 +12193,9 @@
         <v>0.001199999999999979</v>
       </c>
       <c r="M203" t="n">
+        <v>0.001042855999999979</v>
+      </c>
+      <c r="N203" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -11634,6 +12251,9 @@
         <v>0.0006000000000000449</v>
       </c>
       <c r="M204" t="n">
+        <v>0.0004429340000000449</v>
+      </c>
+      <c r="N204" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -11689,6 +12309,9 @@
         <v>0.0007000000000000339</v>
       </c>
       <c r="M205" t="n">
+        <v>0.0005429470000000338</v>
+      </c>
+      <c r="N205" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -11744,6 +12367,9 @@
         <v>0.000400000000000067</v>
       </c>
       <c r="M206" t="n">
+        <v>0.0002429860000000671</v>
+      </c>
+      <c r="N206" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -11799,6 +12425,9 @@
         <v>-0.00329999999999997</v>
       </c>
       <c r="M207" t="n">
+        <v>-0.00345749499999997</v>
+      </c>
+      <c r="N207" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -11854,6 +12483,9 @@
         <v>0.000199999999999978</v>
       </c>
       <c r="M208" t="n">
+        <v>4.3375999999978e-05</v>
+      </c>
+      <c r="N208" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -11909,6 +12541,9 @@
         <v>-0.0003999999999999559</v>
       </c>
       <c r="M209" t="n">
+        <v>-0.0005567019999999559</v>
+      </c>
+      <c r="N209" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -11964,6 +12599,9 @@
         <v>-9.999999999998899e-05</v>
       </c>
       <c r="M210" t="n">
+        <v>-0.000256662999999989</v>
+      </c>
+      <c r="N210" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -12019,6 +12657,9 @@
         <v>0.00120000000000009</v>
       </c>
       <c r="M211" t="n">
+        <v>0.00104358400000009</v>
+      </c>
+      <c r="N211" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12074,6 +12715,9 @@
         <v>3.25</v>
       </c>
       <c r="M212" t="n">
+        <v>2.4619985</v>
+      </c>
+      <c r="N212" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -12129,6 +12773,9 @@
         <v>-5.900000000000091</v>
       </c>
       <c r="M213" t="n">
+        <v>-6.689997000000091</v>
+      </c>
+      <c r="N213" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -12184,6 +12831,9 @@
         <v>0.4500000000002728</v>
       </c>
       <c r="M214" t="n">
+        <v>-0.3395354999997271</v>
+      </c>
+      <c r="N214" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -12239,6 +12889,9 @@
         <v>6.550000000000182</v>
       </c>
       <c r="M215" t="n">
+        <v>5.761257500000182</v>
+      </c>
+      <c r="N215" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -12294,6 +12947,9 @@
         <v>0.3000000000001819</v>
       </c>
       <c r="M216" t="n">
+        <v>-0.4873059999998181</v>
+      </c>
+      <c r="N216" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -12349,6 +13005,9 @@
         <v>-0.25</v>
       </c>
       <c r="M217" t="n">
+        <v>-1.0369485</v>
+      </c>
+      <c r="N217" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -12404,6 +13063,9 @@
         <v>0.0500000000001819</v>
       </c>
       <c r="M218" t="n">
+        <v>-0.7366364999998181</v>
+      </c>
+      <c r="N218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12459,6 +13121,9 @@
         <v>-3.200000000000273</v>
       </c>
       <c r="M219" t="n">
+        <v>-3.986838000000273</v>
+      </c>
+      <c r="N219" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -12514,6 +13179,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M220" t="n">
+        <v>-2.388202999999909</v>
+      </c>
+      <c r="N220" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -12569,6 +13237,9 @@
         <v>-5.199999999999818</v>
       </c>
       <c r="M221" t="n">
+        <v>-5.986798999999818</v>
+      </c>
+      <c r="N221" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -12624,6 +13295,9 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="M222" t="n">
+        <v>-0.6361034999999091</v>
+      </c>
+      <c r="N222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12679,6 +13353,9 @@
         <v>-1.75</v>
       </c>
       <c r="M223" t="n">
+        <v>-2.5361425</v>
+      </c>
+      <c r="N223" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -12734,6 +13411,9 @@
         <v>-0.8000000000001819</v>
       </c>
       <c r="M224" t="n">
+        <v>-1.584836000000182</v>
+      </c>
+      <c r="N224" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -12789,6 +13469,9 @@
         <v>-0.4499999999998181</v>
       </c>
       <c r="M225" t="n">
+        <v>-1.234881499999818</v>
+      </c>
+      <c r="N225" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -12844,6 +13527,9 @@
         <v>-1.099999999999909</v>
       </c>
       <c r="M226" t="n">
+        <v>-1.884237999999909</v>
+      </c>
+      <c r="N226" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -12899,6 +13585,9 @@
         <v>-0.75</v>
       </c>
       <c r="M227" t="n">
+        <v>-1.5351285</v>
+      </c>
+      <c r="N227" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -12954,6 +13643,9 @@
         <v>1.300000000000182</v>
       </c>
       <c r="M228" t="n">
+        <v>0.5146050000001821</v>
+      </c>
+      <c r="N228" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -13009,6 +13701,9 @@
         <v>2.099999999999909</v>
       </c>
       <c r="M229" t="n">
+        <v>1.313967999999909</v>
+      </c>
+      <c r="N229" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -13064,6 +13759,9 @@
         <v>-1.150000000000091</v>
       </c>
       <c r="M230" t="n">
+        <v>-1.935986500000091</v>
+      </c>
+      <c r="N230" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -13119,6 +13817,9 @@
         <v>1.450000000000273</v>
       </c>
       <c r="M231" t="n">
+        <v>0.6631295000002732</v>
+      </c>
+      <c r="N231" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -13174,6 +13875,9 @@
         <v>6.300000000000182</v>
       </c>
       <c r="M232" t="n">
+        <v>5.513604000000182</v>
+      </c>
+      <c r="N232" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -13229,6 +13933,9 @@
         <v>6.449999999999818</v>
       </c>
       <c r="M233" t="n">
+        <v>5.663623499999818</v>
+      </c>
+      <c r="N233" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -13284,6 +13991,9 @@
         <v>5.099999999999909</v>
       </c>
       <c r="M234" t="n">
+        <v>4.316645999999909</v>
+      </c>
+      <c r="N234" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -13339,6 +14049,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M235" t="n">
+        <v>-2.381871999999909</v>
+      </c>
+      <c r="N235" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -13394,6 +14107,9 @@
         <v>1.950000000000273</v>
       </c>
       <c r="M236" t="n">
+        <v>1.168550500000273</v>
+      </c>
+      <c r="N236" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -13449,6 +14165,9 @@
         <v>4.550000000000182</v>
       </c>
       <c r="M237" t="n">
+        <v>3.768927500000182</v>
+      </c>
+      <c r="N237" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -13504,6 +14223,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M238" t="n">
+        <v>-2.380272999999909</v>
+      </c>
+      <c r="N238" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -13559,6 +14281,9 @@
         <v>-0.9499999999998181</v>
       </c>
       <c r="M239" t="n">
+        <v>-1.730292499999818</v>
+      </c>
+      <c r="N239" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -13614,6 +14339,9 @@
         <v>-1</v>
       </c>
       <c r="M240" t="n">
+        <v>-1.780377</v>
+      </c>
+      <c r="N240" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -13669,6 +14397,9 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="M241" t="n">
+        <v>-0.630851499999909</v>
+      </c>
+      <c r="N241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13724,6 +14455,9 @@
         <v>-4.199999999999818</v>
       </c>
       <c r="M242" t="n">
+        <v>-4.979518999999819</v>
+      </c>
+      <c r="N242" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -13779,6 +14513,9 @@
         <v>-0.5</v>
       </c>
       <c r="M243" t="n">
+        <v>-1.279142</v>
+      </c>
+      <c r="N243" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -13834,6 +14571,9 @@
         <v>-0.1500000000000909</v>
       </c>
       <c r="M244" t="n">
+        <v>-0.9291615000000908</v>
+      </c>
+      <c r="N244" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -13889,6 +14629,9 @@
         <v>-1.25</v>
       </c>
       <c r="M245" t="n">
+        <v>-2.0292005</v>
+      </c>
+      <c r="N245" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -13944,6 +14687,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M246" t="n">
+        <v>0.03092079999999915</v>
+      </c>
+      <c r="N246" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -13999,6 +14745,9 @@
         <v>0.1550000000000011</v>
       </c>
       <c r="M247" t="n">
+        <v>0.1459643500000011</v>
+      </c>
+      <c r="N247" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -14054,6 +14803,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M248" t="n">
+        <v>0.1009246999999994</v>
+      </c>
+      <c r="N248" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -14109,6 +14861,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M249" t="n">
+        <v>-0.03903370000000114</v>
+      </c>
+      <c r="N249" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -14164,6 +14919,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M250" t="n">
+        <v>0.03098839999999915</v>
+      </c>
+      <c r="N250" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -14219,6 +14977,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M251" t="n">
+        <v>-0.02899990000000313</v>
+      </c>
+      <c r="N251" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -14274,6 +15035,9 @@
         <v>0.03500000000000369</v>
       </c>
       <c r="M252" t="n">
+        <v>0.02602285000000369</v>
+      </c>
+      <c r="N252" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -14329,6 +15093,9 @@
         <v>0.1950000000000003</v>
       </c>
       <c r="M253" t="n">
+        <v>0.1860410500000003</v>
+      </c>
+      <c r="N253" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -14374,10 +15141,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -14431,6 +15207,9 @@
         <v>0.2899999999999636</v>
       </c>
       <c r="M255" t="n">
+        <v>0.2154748999999636</v>
+      </c>
+      <c r="N255" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -14486,6 +15265,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M256" t="n">
+        <v>-0.2741831999999886</v>
+      </c>
+      <c r="N256" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -14541,6 +15323,9 @@
         <v>-0.03999999999996362</v>
       </c>
       <c r="M257" t="n">
+        <v>-0.1141493999999636</v>
+      </c>
+      <c r="N257" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -14596,6 +15381,9 @@
         <v>-0.410000000000025</v>
       </c>
       <c r="M258" t="n">
+        <v>-0.484088300000025</v>
+      </c>
+      <c r="N258" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -14651,6 +15439,9 @@
         <v>-0.5400000000000205</v>
       </c>
       <c r="M259" t="n">
+        <v>-0.6140116000000205</v>
+      </c>
+      <c r="N259" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -14706,6 +15497,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M260" t="n">
+        <v>-0.3740090000000114</v>
+      </c>
+      <c r="N260" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -14761,6 +15555,9 @@
         <v>-0.7599999999999909</v>
       </c>
       <c r="M261" t="n">
+        <v>-0.8344431999999908</v>
+      </c>
+      <c r="N261" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -14816,6 +15613,9 @@
         <v>-0.589999999999975</v>
       </c>
       <c r="M262" t="n">
+        <v>-0.6647278999999749</v>
+      </c>
+      <c r="N262" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -14871,6 +15671,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M263" t="n">
+        <v>-0.1947162000000045</v>
+      </c>
+      <c r="N263" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -14926,6 +15729,9 @@
         <v>-0.04000000000002046</v>
       </c>
       <c r="M264" t="n">
+        <v>-0.1142248000000204</v>
+      </c>
+      <c r="N264" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -14981,6 +15787,9 @@
         <v>0.07000000000005002</v>
       </c>
       <c r="M265" t="n">
+        <v>-0.004327499999949976</v>
+      </c>
+      <c r="N265" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -15036,6 +15845,9 @@
         <v>0.1899999999999977</v>
       </c>
       <c r="M266" t="n">
+        <v>0.1156022999999977</v>
+      </c>
+      <c r="N266" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -15091,6 +15903,9 @@
         <v>-0.8199999999999932</v>
       </c>
       <c r="M267" t="n">
+        <v>-0.8542861999999932</v>
+      </c>
+      <c r="N267" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -15146,6 +15961,9 @@
         <v>0.4800000000000182</v>
       </c>
       <c r="M268" t="n">
+        <v>0.4457138000000182</v>
+      </c>
+      <c r="N268" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -15201,6 +16019,9 @@
         <v>-0.3899999999999864</v>
       </c>
       <c r="M269" t="n">
+        <v>-0.4241730999999864</v>
+      </c>
+      <c r="N269" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -15256,6 +16077,9 @@
         <v>0.1700000000000159</v>
       </c>
       <c r="M270" t="n">
+        <v>0.1358997000000159</v>
+      </c>
+      <c r="N270" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -15311,6 +16135,9 @@
         <v>0.3400000000000034</v>
       </c>
       <c r="M271" t="n">
+        <v>0.3061168000000034</v>
+      </c>
+      <c r="N271" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -15366,6 +16193,9 @@
         <v>-0.08999999999997499</v>
       </c>
       <c r="M272" t="n">
+        <v>-0.124214699999975</v>
+      </c>
+      <c r="N272" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -15421,6 +16251,9 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="M273" t="n">
+        <v>0.2657346000000114</v>
+      </c>
+      <c r="N273" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -15476,6 +16309,9 @@
         <v>-0.2099999999999795</v>
       </c>
       <c r="M274" t="n">
+        <v>-0.2440196999999795</v>
+      </c>
+      <c r="N274" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -15531,6 +16367,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M275" t="n">
+        <v>-0.0441314999999909</v>
+      </c>
+      <c r="N275" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -15578,6 +16417,9 @@
         <v>0</v>
       </c>
       <c r="M276" t="n">
+        <v>-0.034125</v>
+      </c>
+      <c r="N276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15633,6 +16475,9 @@
         <v>-10</v>
       </c>
       <c r="M277" t="n">
+        <v>-11.73576</v>
+      </c>
+      <c r="N277" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -15688,6 +16533,9 @@
         <v>24</v>
       </c>
       <c r="M278" t="n">
+        <v>22.26333</v>
+      </c>
+      <c r="N278" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -15743,6 +16591,9 @@
         <v>7.5</v>
       </c>
       <c r="M279" t="n">
+        <v>5.771845</v>
+      </c>
+      <c r="N279" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -15798,6 +16649,9 @@
         <v>-3.5</v>
       </c>
       <c r="M280" t="n">
+        <v>-5.226595</v>
+      </c>
+      <c r="N280" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -15853,6 +16707,9 @@
         <v>-9.5</v>
       </c>
       <c r="M281" t="n">
+        <v>-11.228545</v>
+      </c>
+      <c r="N281" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -15908,6 +16765,9 @@
         <v>-13</v>
       </c>
       <c r="M282" t="n">
+        <v>-14.72809</v>
+      </c>
+      <c r="N282" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -15963,6 +16823,9 @@
         <v>-20.5</v>
       </c>
       <c r="M283" t="n">
+        <v>-22.214375</v>
+      </c>
+      <c r="N283" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -16018,6 +16881,9 @@
         <v>9.5</v>
       </c>
       <c r="M284" t="n">
+        <v>7.784975</v>
+      </c>
+      <c r="N284" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -16073,6 +16939,9 @@
         <v>0.5</v>
       </c>
       <c r="M285" t="n">
+        <v>-1.216455</v>
+      </c>
+      <c r="N285" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -16128,6 +16997,9 @@
         <v>2</v>
       </c>
       <c r="M286" t="n">
+        <v>0.2837400000000002</v>
+      </c>
+      <c r="N286" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -16183,6 +17055,9 @@
         <v>1.5</v>
       </c>
       <c r="M287" t="n">
+        <v>-0.2163249999999999</v>
+      </c>
+      <c r="N287" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -16238,6 +17113,9 @@
         <v>1</v>
       </c>
       <c r="M288" t="n">
+        <v>-0.7162599999999999</v>
+      </c>
+      <c r="N288" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -16285,6 +17163,9 @@
         <v>0</v>
       </c>
       <c r="M289" t="n">
+        <v>-1.71639</v>
+      </c>
+      <c r="N289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16340,6 +17221,9 @@
         <v>1.25</v>
       </c>
       <c r="M290" t="n">
+        <v>1.1183685</v>
+      </c>
+      <c r="N290" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -16395,6 +17279,9 @@
         <v>0.8500000000000227</v>
       </c>
       <c r="M291" t="n">
+        <v>0.7184205000000227</v>
+      </c>
+      <c r="N291" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -16450,6 +17337,9 @@
         <v>-2.25</v>
       </c>
       <c r="M292" t="n">
+        <v>-2.3819825</v>
+      </c>
+      <c r="N292" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -16505,6 +17395,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M293" t="n">
+        <v>-0.1824115000000114</v>
+      </c>
+      <c r="N293" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -16560,6 +17453,9 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="M294" t="n">
+        <v>-0.2325089999999659</v>
+      </c>
+      <c r="N294" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -16615,6 +17511,9 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="M295" t="n">
+        <v>0.01747150000003411</v>
+      </c>
+      <c r="N295" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -16670,6 +17569,9 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="M296" t="n">
+        <v>-0.5823334999999885</v>
+      </c>
+      <c r="N296" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -16725,6 +17627,9 @@
         <v>-0.5</v>
       </c>
       <c r="M297" t="n">
+        <v>-0.6322749999999999</v>
+      </c>
+      <c r="N297" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -16780,6 +17685,9 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="M298" t="n">
+        <v>-0.4817225000000227</v>
+      </c>
+      <c r="N298" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -16835,6 +17743,9 @@
         <v>-1</v>
       </c>
       <c r="M299" t="n">
+        <v>-1.131742</v>
+      </c>
+      <c r="N299" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -16890,6 +17801,9 @@
         <v>-1.299999999999955</v>
       </c>
       <c r="M300" t="n">
+        <v>-1.431754999999955</v>
+      </c>
+      <c r="N300" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -16945,6 +17859,9 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="M301" t="n">
+        <v>-0.2811244999999772</v>
+      </c>
+      <c r="N301" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -17000,6 +17917,9 @@
         <v>0</v>
       </c>
       <c r="M302" t="n">
+        <v>-0.131196</v>
+      </c>
+      <c r="N302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17055,6 +17975,9 @@
         <v>0.3499999999999659</v>
       </c>
       <c r="M303" t="n">
+        <v>0.2187584999999659</v>
+      </c>
+      <c r="N303" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -17110,6 +18033,9 @@
         <v>0</v>
       </c>
       <c r="M304" t="n">
+        <v>-0.131287</v>
+      </c>
+      <c r="N304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17165,6 +18091,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M305" t="n">
+        <v>0.06880399999998861</v>
+      </c>
+      <c r="N305" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -17220,6 +18149,9 @@
         <v>0.4499999999999886</v>
       </c>
       <c r="M306" t="n">
+        <v>0.3187714999999886</v>
+      </c>
+      <c r="N306" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -17275,6 +18207,9 @@
         <v>-0.7699999999999818</v>
       </c>
       <c r="M307" t="n">
+        <v>-0.8294580999999818</v>
+      </c>
+      <c r="N307" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -17330,6 +18265,9 @@
         <v>1.109999999999985</v>
       </c>
       <c r="M308" t="n">
+        <v>1.050341699999985</v>
+      </c>
+      <c r="N308" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -17385,6 +18323,9 @@
         <v>0.5099999999999909</v>
       </c>
       <c r="M309" t="n">
+        <v>0.4507784999999909</v>
+      </c>
+      <c r="N309" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -17440,6 +18381,9 @@
         <v>0.07999999999998408</v>
       </c>
       <c r="M310" t="n">
+        <v>0.02076939999998409</v>
+      </c>
+      <c r="N310" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -17495,6 +18439,9 @@
         <v>-0.8199999999999932</v>
       </c>
       <c r="M311" t="n">
+        <v>-0.8796231999999932</v>
+      </c>
+      <c r="N311" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -17550,6 +18497,9 @@
         <v>1.180000000000007</v>
       </c>
       <c r="M312" t="n">
+        <v>1.119867200000007</v>
+      </c>
+      <c r="N312" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -17605,6 +18555,9 @@
         <v>-0.8100000000000023</v>
       </c>
       <c r="M313" t="n">
+        <v>-0.8699573000000023</v>
+      </c>
+      <c r="N313" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -17660,6 +18613,9 @@
         <v>-0.0700000000000216</v>
       </c>
       <c r="M314" t="n">
+        <v>-0.1299105000000216</v>
+      </c>
+      <c r="N314" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -17715,6 +18671,9 @@
         <v>-0.01999999999998181</v>
       </c>
       <c r="M315" t="n">
+        <v>-0.07989879999998181</v>
+      </c>
+      <c r="N315" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -17770,6 +18729,9 @@
         <v>-0.2300000000000182</v>
       </c>
       <c r="M316" t="n">
+        <v>-0.2898663000000182</v>
+      </c>
+      <c r="N316" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -17825,6 +18787,9 @@
         <v>0.07999999999998408</v>
       </c>
       <c r="M317" t="n">
+        <v>0.02022599999998409</v>
+      </c>
+      <c r="N317" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -17880,6 +18845,9 @@
         <v>-2.599999999999909</v>
       </c>
       <c r="M318" t="n">
+        <v>-2.868501999999909</v>
+      </c>
+      <c r="N318" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -17935,6 +18903,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M319" t="n">
+        <v>-1.068735999999955</v>
+      </c>
+      <c r="N319" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -17990,6 +18961,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M320" t="n">
+        <v>-1.466604000000045</v>
+      </c>
+      <c r="N320" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -18045,6 +19019,9 @@
         <v>0.3999999999998636</v>
       </c>
       <c r="M321" t="n">
+        <v>0.1336039999998636</v>
+      </c>
+      <c r="N321" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -18100,6 +19077,9 @@
         <v>-0.8000000000000682</v>
       </c>
       <c r="M322" t="n">
+        <v>-1.065512000000068</v>
+      </c>
+      <c r="N322" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -18155,6 +19135,9 @@
         <v>0</v>
       </c>
       <c r="M323" t="n">
+        <v>-0.265356</v>
+      </c>
+      <c r="N323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18210,6 +19193,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M324" t="n">
+        <v>0.5346959999999545</v>
+      </c>
+      <c r="N324" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -18265,6 +19251,9 @@
         <v>-1.199999999999932</v>
       </c>
       <c r="M325" t="n">
+        <v>-1.464731999999932</v>
+      </c>
+      <c r="N325" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -18320,6 +19309,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M326" t="n">
+        <v>-0.6646279999999773</v>
+      </c>
+      <c r="N326" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -18375,6 +19367,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M327" t="n">
+        <v>-0.4646019999999317</v>
+      </c>
+      <c r="N327" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -18430,6 +19425,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M328" t="n">
+        <v>-1.064523999999955</v>
+      </c>
+      <c r="N328" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -18485,6 +19483,9 @@
         <v>5.200000000000045</v>
       </c>
       <c r="M329" t="n">
+        <v>4.933864000000045</v>
+      </c>
+      <c r="N329" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -18540,6 +19541,9 @@
         <v>1.799999999999955</v>
       </c>
       <c r="M330" t="n">
+        <v>1.534513999999955</v>
+      </c>
+      <c r="N330" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -18595,6 +19599,9 @@
         <v>1</v>
       </c>
       <c r="M331" t="n">
+        <v>0.73441</v>
+      </c>
+      <c r="N331" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -18650,6 +19657,9 @@
         <v>1.199999999999932</v>
       </c>
       <c r="M332" t="n">
+        <v>0.9350079999999321</v>
+      </c>
+      <c r="N332" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -18705,6 +19715,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M333" t="n">
+        <v>-1.465304000000045</v>
+      </c>
+      <c r="N333" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -18760,6 +19773,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M334" t="n">
+        <v>-1.065355999999954</v>
+      </c>
+      <c r="N334" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -18807,6 +19823,9 @@
         <v>0</v>
       </c>
       <c r="M335" t="n">
+        <v>-0.265408</v>
+      </c>
+      <c r="N335" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18862,6 +19881,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M336" t="n">
+        <v>-0.001083079999999332</v>
+      </c>
+      <c r="N336" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18917,6 +19939,9 @@
         <v>0.001000000000001222</v>
       </c>
       <c r="M337" t="n">
+        <v>-0.002082949999998778</v>
+      </c>
+      <c r="N337" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -18972,6 +19997,9 @@
         <v>-0.007999999999999119</v>
       </c>
       <c r="M338" t="n">
+        <v>-0.01108411999999912</v>
+      </c>
+      <c r="N338" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -19027,6 +20055,9 @@
         <v>-0.0009999999999994458</v>
       </c>
       <c r="M339" t="n">
+        <v>-0.004085809999999445</v>
+      </c>
+      <c r="N339" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -19082,6 +20113,9 @@
         <v>-0.0009999999999994458</v>
       </c>
       <c r="M340" t="n">
+        <v>-0.004085809999999445</v>
+      </c>
+      <c r="N340" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -19137,6 +20171,9 @@
         <v>-0.3799999999999955</v>
       </c>
       <c r="M341" t="n">
+        <v>-0.4133605999999955</v>
+      </c>
+      <c r="N341" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -19192,6 +20229,9 @@
         <v>0.3600000000000136</v>
       </c>
       <c r="M342" t="n">
+        <v>0.3266160000000136</v>
+      </c>
+      <c r="N342" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -19247,6 +20287,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M343" t="n">
+        <v>-0.2133138000000068</v>
+      </c>
+      <c r="N343" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -19302,6 +20345,9 @@
         <v>0.1199999999999903</v>
       </c>
       <c r="M344" t="n">
+        <v>0.0867251999999903</v>
+      </c>
+      <c r="N344" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -19357,6 +20403,9 @@
         <v>-0.3799999999999955</v>
       </c>
       <c r="M345" t="n">
+        <v>-0.4131785999999955</v>
+      </c>
+      <c r="N345" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -19412,6 +20461,9 @@
         <v>-0.2600000000000193</v>
       </c>
       <c r="M346" t="n">
+        <v>-0.2933814000000193</v>
+      </c>
+      <c r="N346" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -19467,6 +20519,9 @@
         <v>0.04000000000002046</v>
       </c>
       <c r="M347" t="n">
+        <v>0.006590000000020461</v>
+      </c>
+      <c r="N347" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -19522,6 +20577,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M348" t="n">
+        <v>-0.1131864000000125</v>
+      </c>
+      <c r="N348" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -19577,6 +20635,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M349" t="n">
+        <v>0.1268135999999966</v>
+      </c>
+      <c r="N349" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -19632,6 +20693,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M350" t="n">
+        <v>-0.05320979999999602</v>
+      </c>
+      <c r="N350" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -19687,6 +20751,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M351" t="n">
+        <v>-0.05320979999999602</v>
+      </c>
+      <c r="N351" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -19742,6 +20809,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M352" t="n">
+        <v>-0.1332097999999943</v>
+      </c>
+      <c r="N352" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -19797,6 +20867,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M353" t="n">
+        <v>-0.1132123999999983</v>
+      </c>
+      <c r="N353" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -19852,6 +20925,9 @@
         <v>0.7199999999999989</v>
       </c>
       <c r="M354" t="n">
+        <v>0.6772091999999988</v>
+      </c>
+      <c r="N354" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -19907,6 +20983,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M355" t="n">
+        <v>0.3572508000000057</v>
+      </c>
+      <c r="N355" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -19962,6 +21041,9 @@
         <v>-0.6399999999999864</v>
       </c>
       <c r="M356" t="n">
+        <v>-0.6828843999999863</v>
+      </c>
+      <c r="N356" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -20017,6 +21099,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M357" t="n">
+        <v>-0.1429545999999943</v>
+      </c>
+      <c r="N357" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -20072,6 +21157,9 @@
         <v>-0.539999999999992</v>
       </c>
       <c r="M358" t="n">
+        <v>-0.582699799999992</v>
+      </c>
+      <c r="N358" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -20127,6 +21215,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M359" t="n">
+        <v>-0.1426789999999943</v>
+      </c>
+      <c r="N359" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -20182,6 +21273,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M360" t="n">
+        <v>-0.2427127999999886</v>
+      </c>
+      <c r="N360" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -20237,6 +21331,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M361" t="n">
+        <v>-0.1026998000000023</v>
+      </c>
+      <c r="N361" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -20292,6 +21389,9 @@
         <v>0.5</v>
       </c>
       <c r="M362" t="n">
+        <v>0.457269</v>
+      </c>
+      <c r="N362" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -20347,6 +21447,9 @@
         <v>0.6800000000000068</v>
       </c>
       <c r="M363" t="n">
+        <v>0.6372456000000067</v>
+      </c>
+      <c r="N363" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -20402,6 +21505,9 @@
         <v>-0.5</v>
       </c>
       <c r="M364" t="n">
+        <v>-0.5429078000000001</v>
+      </c>
+      <c r="N364" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -20457,6 +21563,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M365" t="n">
+        <v>-0.1428869999999943</v>
+      </c>
+      <c r="N365" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -20512,6 +21621,9 @@
         <v>0.9399999999999977</v>
       </c>
       <c r="M366" t="n">
+        <v>0.8969465999999977</v>
+      </c>
+      <c r="N366" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -20567,6 +21679,9 @@
         <v>-0.1399999999999864</v>
       </c>
       <c r="M367" t="n">
+        <v>-0.1832249999999864</v>
+      </c>
+      <c r="N367" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -20622,6 +21737,9 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="M368" t="n">
+        <v>-0.2429780000000171</v>
+      </c>
+      <c r="N368" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -20677,6 +21795,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M369" t="n">
+        <v>-0.4430196000000057</v>
+      </c>
+      <c r="N369" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -20732,6 +21853,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M370" t="n">
+        <v>-0.1830898000000148</v>
+      </c>
+      <c r="N370" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -20787,6 +21911,9 @@
         <v>-0.1149999999999949</v>
       </c>
       <c r="M371" t="n">
+        <v>-0.1281462499999949</v>
+      </c>
+      <c r="N371" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -20842,6 +21969,9 @@
         <v>0.2099999999999937</v>
       </c>
       <c r="M372" t="n">
+        <v>0.1968842999999937</v>
+      </c>
+      <c r="N372" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -20897,6 +22027,9 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="M373" t="n">
+        <v>-0.03808515000000568</v>
+      </c>
+      <c r="N373" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -20952,6 +22085,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M374" t="n">
+        <v>-0.09308059999999829</v>
+      </c>
+      <c r="N374" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -21007,6 +22143,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M375" t="n">
+        <v>0.006924599999996022</v>
+      </c>
+      <c r="N375" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -21062,6 +22201,9 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="M376" t="n">
+        <v>-0.07805654999999773</v>
+      </c>
+      <c r="N376" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -21117,6 +22259,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M377" t="n">
+        <v>0.1269246000000006</v>
+      </c>
+      <c r="N377" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -21172,6 +22317,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M378" t="n">
+        <v>0.1069272000000045</v>
+      </c>
+      <c r="N378" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -21227,6 +22375,9 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="M379" t="n">
+        <v>-0.01808904999999545</v>
+      </c>
+      <c r="N379" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -21282,6 +22433,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M380" t="n">
+        <v>-0.03309099999999602</v>
+      </c>
+      <c r="N380" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -21337,6 +22491,9 @@
         <v>-0.02999999999999403</v>
       </c>
       <c r="M381" t="n">
+        <v>-0.04309229999999403</v>
+      </c>
+      <c r="N381" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -21392,6 +22549,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M382" t="n">
+        <v>0.001884950000000571</v>
+      </c>
+      <c r="N382" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -21447,6 +22607,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M383" t="n">
+        <v>-0.5663660000000454</v>
+      </c>
+      <c r="N383" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -21502,6 +22665,9 @@
         <v>2.799999999999955</v>
       </c>
       <c r="M384" t="n">
+        <v>2.434023999999955</v>
+      </c>
+      <c r="N384" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -21557,6 +22723,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M385" t="n">
+        <v>-1.565456000000045</v>
+      </c>
+      <c r="N385" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -21612,6 +22781,9 @@
         <v>0</v>
       </c>
       <c r="M386" t="n">
+        <v>-0.365352</v>
+      </c>
+      <c r="N386" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21667,6 +22839,9 @@
         <v>3</v>
       </c>
       <c r="M387" t="n">
+        <v>2.63509</v>
+      </c>
+      <c r="N387" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -21722,6 +22897,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M388" t="n">
+        <v>-0.9643379999999091</v>
+      </c>
+      <c r="N388" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -21777,6 +22955,9 @@
         <v>16.79999999999995</v>
       </c>
       <c r="M389" t="n">
+        <v>16.43558399999995</v>
+      </c>
+      <c r="N389" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -21832,6 +23013,9 @@
         <v>4.399999999999864</v>
       </c>
       <c r="M390" t="n">
+        <v>4.037195999999863</v>
+      </c>
+      <c r="N390" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -21887,6 +23071,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M391" t="n">
+        <v>-0.763688000000091</v>
+      </c>
+      <c r="N391" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -21942,6 +23129,9 @@
         <v>-0.6000000000001364</v>
       </c>
       <c r="M392" t="n">
+        <v>-0.9637140000001365</v>
+      </c>
+      <c r="N392" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -21997,6 +23187,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M393" t="n">
+        <v>-0.7640520000000909</v>
+      </c>
+      <c r="N393" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -22052,6 +23245,9 @@
         <v>2</v>
       </c>
       <c r="M394" t="n">
+        <v>1.635584</v>
+      </c>
+      <c r="N394" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -22107,6 +23303,9 @@
         <v>-0.240000000000002</v>
       </c>
       <c r="M395" t="n">
+        <v>-0.255750800000002</v>
+      </c>
+      <c r="N395" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -22162,6 +23361,9 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="M396" t="n">
+        <v>0.1042257999999974</v>
+      </c>
+      <c r="N396" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -22217,6 +23419,9 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="M397" t="n">
+        <v>0.08422840000000138</v>
+      </c>
+      <c r="N397" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -22272,6 +23477,9 @@
         <v>-0.25</v>
       </c>
       <c r="M398" t="n">
+        <v>-0.2658171</v>
+      </c>
+      <c r="N398" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -22327,6 +23535,9 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="M399" t="n">
+        <v>-0.06584310000000426</v>
+      </c>
+      <c r="N399" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -22382,6 +23593,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M400" t="n">
+        <v>-0.1258092999999994</v>
+      </c>
+      <c r="N400" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -22437,6 +23651,9 @@
         <v>0.2000000000000028</v>
       </c>
       <c r="M401" t="n">
+        <v>0.1843272000000028</v>
+      </c>
+      <c r="N401" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -22492,6 +23709,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M402" t="n">
+        <v>-0.09563639999999829</v>
+      </c>
+      <c r="N402" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -22547,6 +23767,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M403" t="n">
+        <v>-0.04562990000000114</v>
+      </c>
+      <c r="N403" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -22602,6 +23825,9 @@
         <v>0.4200000000000017</v>
       </c>
       <c r="M404" t="n">
+        <v>0.4042804000000017</v>
+      </c>
+      <c r="N404" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -22657,6 +23883,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M405" t="n">
+        <v>0.06436099999999829</v>
+      </c>
+      <c r="N405" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -22712,6 +23941,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M406" t="n">
+        <v>-0.02564809999999801</v>
+      </c>
+      <c r="N406" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -22767,6 +23999,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M407" t="n">
+        <v>-0.03565459999999602</v>
+      </c>
+      <c r="N407" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -22822,6 +24057,9 @@
         <v>0</v>
       </c>
       <c r="M408" t="n">
+        <v>-0.0156572</v>
+      </c>
+      <c r="N408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22877,6 +24115,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M409" t="n">
+        <v>0.02434279999999915</v>
+      </c>
+      <c r="N409" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -22932,6 +24173,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M410" t="n">
+        <v>-0.1256766999999994</v>
+      </c>
+      <c r="N410" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -22987,6 +24231,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M411" t="n">
+        <v>-0.03569880000000313</v>
+      </c>
+      <c r="N411" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -23042,6 +24289,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M412" t="n">
+        <v>-0.03570139999999602</v>
+      </c>
+      <c r="N412" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -23097,6 +24347,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M413" t="n">
+        <v>-0.04567150000000114</v>
+      </c>
+      <c r="N413" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -23152,6 +24405,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M414" t="n">
+        <v>-0.03567020000000313</v>
+      </c>
+      <c r="N414" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -23207,6 +24463,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M415" t="n">
+        <v>0.08466429999999942</v>
+      </c>
+      <c r="N415" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -23262,6 +24521,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M416" t="n">
+        <v>-0.07535649999999715</v>
+      </c>
+      <c r="N416" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -23317,6 +24579,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M417" t="n">
+        <v>0.03462920000000227</v>
+      </c>
+      <c r="N417" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -23372,6 +24637,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M418" t="n">
+        <v>-0.04538640000001023</v>
+      </c>
+      <c r="N418" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -23419,6 +24687,9 @@
         <v>0</v>
       </c>
       <c r="M419" t="n">
+        <v>-0.0253656</v>
+      </c>
+      <c r="N419" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23474,6 +24745,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M420" t="n">
+        <v>0.0950954999999994</v>
+      </c>
+      <c r="N420" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -23529,6 +24803,9 @@
         <v>-0.6799999999999997</v>
       </c>
       <c r="M421" t="n">
+        <v>-0.6947575999999996</v>
+      </c>
+      <c r="N421" t="n">
         <v>-1.19</v>
       </c>
     </row>
@@ -23584,6 +24861,9 @@
         <v>0.09000000000000341</v>
       </c>
       <c r="M422" t="n">
+        <v>0.0752879000000034</v>
+      </c>
+      <c r="N422" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -23639,6 +24919,9 @@
         <v>-0.2899999999999991</v>
       </c>
       <c r="M423" t="n">
+        <v>-0.3048238999999991</v>
+      </c>
+      <c r="N423" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -23694,6 +24977,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M424" t="n">
+        <v>-0.03493440000000313</v>
+      </c>
+      <c r="N424" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -23749,6 +25035,9 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="M425" t="n">
+        <v>-0.08478490000000029</v>
+      </c>
+      <c r="N425" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -23804,6 +25093,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M426" t="n">
+        <v>0.005226799999996022</v>
+      </c>
+      <c r="N426" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -23859,6 +25151,9 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="M427" t="n">
+        <v>-0.08474590000000028</v>
+      </c>
+      <c r="N427" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -23914,6 +25209,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M428" t="n">
+        <v>-0.05474979999999915</v>
+      </c>
+      <c r="N428" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -23969,6 +25267,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M429" t="n">
+        <v>-0.03474459999999602</v>
+      </c>
+      <c r="N429" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -24024,6 +25325,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M430" t="n">
+        <v>-0.07482000000000227</v>
+      </c>
+      <c r="N430" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -24079,6 +25383,9 @@
         <v>-0.1499999999999986</v>
       </c>
       <c r="M431" t="n">
+        <v>-0.1648082999999986</v>
+      </c>
+      <c r="N431" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -24134,6 +25441,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M432" t="n">
+        <v>0.01514490000000114</v>
+      </c>
+      <c r="N432" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -24181,6 +25491,9 @@
         <v>0</v>
       </c>
       <c r="M433" t="n">
+        <v>-0.0148538</v>
+      </c>
+      <c r="N433" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24236,6 +25549,9 @@
         <v>1.099999999999994</v>
       </c>
       <c r="M434" t="n">
+        <v>1.062702999999994</v>
+      </c>
+      <c r="N434" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -24291,6 +25607,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M435" t="n">
+        <v>-0.05715140000001023</v>
+      </c>
+      <c r="N435" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -24346,6 +25665,9 @@
         <v>0.5800000000000125</v>
       </c>
       <c r="M436" t="n">
+        <v>0.5428174000000126</v>
+      </c>
+      <c r="N436" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -24401,6 +25723,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M437" t="n">
+        <v>0.422801800000008</v>
+      </c>
+      <c r="N437" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -24456,6 +25781,9 @@
         <v>0.5999999999999943</v>
       </c>
       <c r="M438" t="n">
+        <v>0.5628147999999944</v>
+      </c>
+      <c r="N438" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -24511,6 +25839,9 @@
         <v>-1.599999999999994</v>
       </c>
       <c r="M439" t="n">
+        <v>-1.637471199999994</v>
+      </c>
+      <c r="N439" t="n">
         <v>-1.12</v>
       </c>
     </row>
@@ -24566,6 +25897,9 @@
         <v>-0.5800000000000125</v>
       </c>
       <c r="M440" t="n">
+        <v>-0.6177858000000125</v>
+      </c>
+      <c r="N440" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -24621,6 +25955,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M441" t="n">
+        <v>-0.1379417999999943</v>
+      </c>
+      <c r="N441" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -24676,6 +26013,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M442" t="n">
+        <v>-0.2977909999999909</v>
+      </c>
+      <c r="N442" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -24731,6 +26071,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M443" t="n">
+        <v>-0.3978247999999852</v>
+      </c>
+      <c r="N443" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -24786,6 +26129,9 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="M444" t="n">
+        <v>-0.2378092000000171</v>
+      </c>
+      <c r="N444" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -24833,6 +26179,9 @@
         <v>0</v>
       </c>
       <c r="M445" t="n">
+        <v>-0.0377364</v>
+      </c>
+      <c r="N445" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24888,6 +26237,9 @@
         <v>-0.04499999999999815</v>
       </c>
       <c r="M446" t="n">
+        <v>-0.05041774999999815</v>
+      </c>
+      <c r="N446" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -24943,6 +26295,9 @@
         <v>-0.07400000000000162</v>
       </c>
       <c r="M447" t="n">
+        <v>-0.07942178000000162</v>
+      </c>
+      <c r="N447" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -24998,6 +26353,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M448" t="n">
+        <v>-0.02049107000000057</v>
+      </c>
+      <c r="N448" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -25053,6 +26411,9 @@
         <v>0.05699999999999861</v>
       </c>
       <c r="M449" t="n">
+        <v>0.05161994999999861</v>
+      </c>
+      <c r="N449" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -25108,6 +26469,9 @@
         <v>0.06200000000000117</v>
       </c>
       <c r="M450" t="n">
+        <v>0.05664400000000117</v>
+      </c>
+      <c r="N450" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -25163,6 +26527,9 @@
         <v>-0.1490000000000009</v>
       </c>
       <c r="M451" t="n">
+        <v>-0.1544115100000009</v>
+      </c>
+      <c r="N451" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -25218,6 +26585,9 @@
         <v>0.008000000000002672</v>
       </c>
       <c r="M452" t="n">
+        <v>0.002581600000002672</v>
+      </c>
+      <c r="N452" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25273,6 +26643,9 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="M453" t="n">
+        <v>0.03955157000000171</v>
+      </c>
+      <c r="N453" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -25328,6 +26701,9 @@
         <v>-0.002000000000002444</v>
       </c>
       <c r="M454" t="n">
+        <v>-0.007376800000002444</v>
+      </c>
+      <c r="N454" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -25383,6 +26759,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M455" t="n">
+        <v>-0.02038317000000057</v>
+      </c>
+      <c r="N455" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -25438,6 +26817,9 @@
         <v>0.004000000000001336</v>
       </c>
       <c r="M456" t="n">
+        <v>-0.001405139999998663</v>
+      </c>
+      <c r="N456" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -25493,6 +26875,9 @@
         <v>0.0210000000000008</v>
       </c>
       <c r="M457" t="n">
+        <v>0.0155856300000008</v>
+      </c>
+      <c r="N457" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -25548,6 +26933,9 @@
         <v>0.0190000000000019</v>
       </c>
       <c r="M458" t="n">
+        <v>0.0135739300000019</v>
+      </c>
+      <c r="N458" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -25603,6 +26991,9 @@
         <v>0.03100000000000236</v>
       </c>
       <c r="M459" t="n">
+        <v>0.02557627000000236</v>
+      </c>
+      <c r="N459" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -25658,6 +27049,9 @@
         <v>-0.05000000000006821</v>
       </c>
       <c r="M460" t="n">
+        <v>-0.2260005000000682</v>
+      </c>
+      <c r="N460" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -25713,6 +27107,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M461" t="n">
+        <v>0.02401900000004552</v>
+      </c>
+      <c r="N461" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -25768,6 +27165,9 @@
         <v>-0.5499999999999545</v>
       </c>
       <c r="M462" t="n">
+        <v>-0.7259484999999546</v>
+      </c>
+      <c r="N462" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -25823,6 +27223,9 @@
         <v>0.5</v>
       </c>
       <c r="M463" t="n">
+        <v>0.325176</v>
+      </c>
+      <c r="N463" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -25878,6 +27281,9 @@
         <v>-0.3499999999999091</v>
       </c>
       <c r="M464" t="n">
+        <v>-0.5250124999999091</v>
+      </c>
+      <c r="N464" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -25933,6 +27339,9 @@
         <v>1</v>
       </c>
       <c r="M465" t="n">
+        <v>0.825358</v>
+      </c>
+      <c r="N465" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -25988,6 +27397,9 @@
         <v>-0.4500000000000455</v>
       </c>
       <c r="M466" t="n">
+        <v>-0.6251165000000455</v>
+      </c>
+      <c r="N466" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -26043,6 +27455,9 @@
         <v>-0.7000000000000455</v>
       </c>
       <c r="M467" t="n">
+        <v>-0.8751490000000455</v>
+      </c>
+      <c r="N467" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -26098,6 +27513,9 @@
         <v>-0.9000000000000909</v>
       </c>
       <c r="M468" t="n">
+        <v>-1.074980000000091</v>
+      </c>
+      <c r="N468" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -26153,6 +27571,9 @@
         <v>-0.09999999999990905</v>
       </c>
       <c r="M469" t="n">
+        <v>-0.275304999999909</v>
+      </c>
+      <c r="N469" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -26208,6 +27629,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M470" t="n">
+        <v>-0.3752919999999318</v>
+      </c>
+      <c r="N470" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -26263,6 +27687,9 @@
         <v>0.6499999999999773</v>
       </c>
       <c r="M471" t="n">
+        <v>0.4744804999999773</v>
+      </c>
+      <c r="N471" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -26318,6 +27745,9 @@
         <v>0.09999999999990905</v>
       </c>
       <c r="M472" t="n">
+        <v>-0.07595500000009094</v>
+      </c>
+      <c r="N472" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -26373,6 +27803,9 @@
         <v>3.999999999999837e-05</v>
       </c>
       <c r="M473" t="n">
+        <v>1.421839999999837e-05</v>
+      </c>
+      <c r="N473" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -26428,6 +27861,9 @@
         <v>-2.000000000000612e-05</v>
       </c>
       <c r="M474" t="n">
+        <v>-4.576340000000612e-05</v>
+      </c>
+      <c r="N474" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -26483,6 +27919,9 @@
         <v>-0.0002599999999999963</v>
       </c>
       <c r="M475" t="n">
+        <v>-0.0002857893999999963</v>
+      </c>
+      <c r="N475" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -26538,6 +27977,9 @@
         <v>-0.0005799999999999972</v>
       </c>
       <c r="M476" t="n">
+        <v>-0.0006059765999999971</v>
+      </c>
+      <c r="N476" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -26593,6 +28035,9 @@
         <v>0.0003200000000000008</v>
       </c>
       <c r="M477" t="n">
+        <v>0.0002939064000000008</v>
+      </c>
+      <c r="N477" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -26648,6 +28093,9 @@
         <v>-1.999999999999225e-05</v>
       </c>
       <c r="M478" t="n">
+        <v>-4.579459999999225e-05</v>
+      </c>
+      <c r="N478" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -26703,6 +28151,9 @@
         <v>-0.0001400000000000012</v>
       </c>
       <c r="M479" t="n">
+        <v>-0.0001657790000000012</v>
+      </c>
+      <c r="N479" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -26758,6 +28209,9 @@
         <v>-0.0001400000000000012</v>
       </c>
       <c r="M480" t="n">
+        <v>-0.0001657790000000012</v>
+      </c>
+      <c r="N480" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -26813,6 +28267,9 @@
         <v>0.001499999999999946</v>
       </c>
       <c r="M481" t="n">
+        <v>0.001344246999999946</v>
+      </c>
+      <c r="N481" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -26868,6 +28325,9 @@
         <v>0.001700000000000035</v>
       </c>
       <c r="M482" t="n">
+        <v>0.001544351000000035</v>
+      </c>
+      <c r="N482" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -26923,6 +28383,9 @@
         <v>-0.001700000000000035</v>
       </c>
       <c r="M483" t="n">
+        <v>-0.001856091000000035</v>
+      </c>
+      <c r="N483" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -26978,6 +28441,9 @@
         <v>-0.000299999999999967</v>
       </c>
       <c r="M484" t="n">
+        <v>-0.000456090999999967</v>
+      </c>
+      <c r="N484" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -27033,6 +28499,9 @@
         <v>0.0003999999999999559</v>
       </c>
       <c r="M485" t="n">
+        <v>0.0002436619999999559</v>
+      </c>
+      <c r="N485" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -27088,6 +28557,9 @@
         <v>0.001900000000000013</v>
       </c>
       <c r="M486" t="n">
+        <v>0.001743675000000013</v>
+      </c>
+      <c r="N486" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -27143,6 +28615,9 @@
         <v>-0.0004999999999999449</v>
       </c>
       <c r="M487" t="n">
+        <v>-0.0006567149999999449</v>
+      </c>
+      <c r="N487" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -27198,6 +28673,9 @@
         <v>-0.0007000000000000339</v>
       </c>
       <c r="M488" t="n">
+        <v>-0.000857131000000034</v>
+      </c>
+      <c r="N488" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -27253,6 +28731,9 @@
         <v>9.999999999998899e-05</v>
       </c>
       <c r="M489" t="n">
+        <v>-5.663700000001101e-05</v>
+      </c>
+      <c r="N489" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -27308,6 +28789,9 @@
         <v>-9.999999999998899e-05</v>
       </c>
       <c r="M490" t="n">
+        <v>-0.0002567409999999889</v>
+      </c>
+      <c r="N490" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -27363,6 +28847,9 @@
         <v>-0.001100000000000101</v>
       </c>
       <c r="M491" t="n">
+        <v>-0.001256663000000101</v>
+      </c>
+      <c r="N491" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -27418,6 +28905,9 @@
         <v>-3.349999999999909</v>
       </c>
       <c r="M492" t="n">
+        <v>-4.127731499999909</v>
+      </c>
+      <c r="N492" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -27473,6 +28963,9 @@
         <v>0.09999999999990905</v>
       </c>
       <c r="M493" t="n">
+        <v>-0.6752160000000909</v>
+      </c>
+      <c r="N493" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27528,6 +29021,9 @@
         <v>1.800000000000182</v>
       </c>
       <c r="M494" t="n">
+        <v>1.021014000000182</v>
+      </c>
+      <c r="N494" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -27583,6 +29079,9 @@
         <v>1.349999999999909</v>
       </c>
       <c r="M495" t="n">
+        <v>0.5736594999999092</v>
+      </c>
+      <c r="N495" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -27638,6 +29137,9 @@
         <v>-1.849999999999909</v>
       </c>
       <c r="M496" t="n">
+        <v>-2.626704499999909</v>
+      </c>
+      <c r="N496" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -27693,6 +29195,9 @@
         <v>-1.199999999999818</v>
       </c>
       <c r="M497" t="n">
+        <v>-1.975254999999818</v>
+      </c>
+      <c r="N497" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -27748,6 +29253,9 @@
         <v>6.599999999999909</v>
       </c>
       <c r="M498" t="n">
+        <v>5.825615999999909</v>
+      </c>
+      <c r="N498" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -27803,6 +29311,9 @@
         <v>1.449999999999818</v>
       </c>
       <c r="M499" t="n">
+        <v>0.6761684999998181</v>
+      </c>
+      <c r="N499" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -27858,6 +29369,9 @@
         <v>-0.7999999999997272</v>
       </c>
       <c r="M500" t="n">
+        <v>-1.572381999999727</v>
+      </c>
+      <c r="N500" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -27913,6 +29427,9 @@
         <v>-0.5499999999997272</v>
       </c>
       <c r="M501" t="n">
+        <v>-1.322349499999727</v>
+      </c>
+      <c r="N501" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -27968,6 +29485,9 @@
         <v>-1.25</v>
       </c>
       <c r="M502" t="n">
+        <v>-2.0200485</v>
+      </c>
+      <c r="N502" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -28023,6 +29543,9 @@
         <v>3.949999999999818</v>
       </c>
       <c r="M503" t="n">
+        <v>3.179236499999818</v>
+      </c>
+      <c r="N503" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -28078,6 +29601,9 @@
         <v>-1.5</v>
       </c>
       <c r="M504" t="n">
+        <v>-2.268365</v>
+      </c>
+      <c r="N504" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -28133,6 +29659,9 @@
         <v>-0.9499999999998181</v>
       </c>
       <c r="M505" t="n">
+        <v>-1.719853499999818</v>
+      </c>
+      <c r="N505" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -28188,6 +29717,9 @@
         <v>-0.5499999999997272</v>
       </c>
       <c r="M506" t="n">
+        <v>-1.320750499999727</v>
+      </c>
+      <c r="N506" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -28243,6 +29775,9 @@
         <v>-1.399999999999636</v>
       </c>
       <c r="M507" t="n">
+        <v>-2.176489999999636</v>
+      </c>
+      <c r="N507" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -28298,6 +29833,9 @@
         <v>11.44999999999982</v>
       </c>
       <c r="M508" t="n">
+        <v>10.67835249999982</v>
+      </c>
+      <c r="N508" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -28353,6 +29891,9 @@
         <v>0.1999999999998181</v>
       </c>
       <c r="M509" t="n">
+        <v>-0.5700940000001818</v>
+      </c>
+      <c r="N509" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -28408,6 +29949,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M510" t="n">
+        <v>-2.370327999999909</v>
+      </c>
+      <c r="N510" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -28463,6 +30007,9 @@
         <v>-4.25</v>
       </c>
       <c r="M511" t="n">
+        <v>-5.0207765</v>
+      </c>
+      <c r="N511" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -28518,6 +30065,9 @@
         <v>-1.400000000000091</v>
       </c>
       <c r="M512" t="n">
+        <v>-2.169288000000091</v>
+      </c>
+      <c r="N512" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -28573,6 +30123,9 @@
         <v>1.700000000000273</v>
       </c>
       <c r="M513" t="n">
+        <v>0.929763000000273</v>
+      </c>
+      <c r="N513" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -28628,6 +30181,9 @@
         <v>-2.25</v>
       </c>
       <c r="M514" t="n">
+        <v>-3.0197235</v>
+      </c>
+      <c r="N514" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -28683,6 +30239,9 @@
         <v>3.050000000000182</v>
       </c>
       <c r="M515" t="n">
+        <v>2.279808500000182</v>
+      </c>
+      <c r="N515" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -28738,6 +30297,9 @@
         <v>-2.25</v>
       </c>
       <c r="M516" t="n">
+        <v>-3.0208805</v>
+      </c>
+      <c r="N516" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -28793,6 +30355,9 @@
         <v>0.1999999999998181</v>
       </c>
       <c r="M517" t="n">
+        <v>-0.5700550000001818</v>
+      </c>
+      <c r="N517" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -28848,6 +30413,9 @@
         <v>-0.5500000000001819</v>
       </c>
       <c r="M518" t="n">
+        <v>-1.320867500000182</v>
+      </c>
+      <c r="N518" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -28903,6 +30471,9 @@
         <v>-2.099999999999909</v>
       </c>
       <c r="M519" t="n">
+        <v>-2.870756999999909</v>
+      </c>
+      <c r="N519" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -28958,6 +30529,9 @@
         <v>0.5499999999997272</v>
       </c>
       <c r="M520" t="n">
+        <v>-0.2211405000002728</v>
+      </c>
+      <c r="N520" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -29013,6 +30587,9 @@
         <v>-0.1299999999999955</v>
       </c>
       <c r="M521" t="n">
+        <v>-0.1389920999999955</v>
+      </c>
+      <c r="N521" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -29068,6 +30645,9 @@
         <v>-0.3099999999999952</v>
       </c>
       <c r="M522" t="n">
+        <v>-0.3188815999999953</v>
+      </c>
+      <c r="N522" t="n">
         <v>-0.8999999999999999</v>
       </c>
     </row>
@@ -29123,6 +30703,9 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="M523" t="n">
+        <v>-0.07388094999999772</v>
+      </c>
+      <c r="N523" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -29178,6 +30761,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M524" t="n">
+        <v>-0.2289192999999989</v>
+      </c>
+      <c r="N524" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -29233,6 +30819,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M525" t="n">
+        <v>-0.02392385000000057</v>
+      </c>
+      <c r="N525" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -29288,6 +30877,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M526" t="n">
+        <v>-0.01891669999999801</v>
+      </c>
+      <c r="N526" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -29343,6 +30935,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M527" t="n">
+        <v>-0.01891930000000512</v>
+      </c>
+      <c r="N527" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -29398,6 +30993,9 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="M528" t="n">
+        <v>-0.06397064999999971</v>
+      </c>
+      <c r="N528" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -29453,6 +31051,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M529" t="n">
+        <v>0.006111250000000572</v>
+      </c>
+      <c r="N529" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -29508,6 +31109,9 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="M530" t="n">
+        <v>-0.03389394999999858</v>
+      </c>
+      <c r="N530" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -29563,6 +31167,9 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="M531" t="n">
+        <v>0.001104099999998011</v>
+      </c>
+      <c r="N531" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -29608,10 +31215,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
-      <c r="M532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -29665,6 +31281,9 @@
         <v>-0.7199999999999704</v>
       </c>
       <c r="M533" t="n">
+        <v>-0.7923683999999704</v>
+      </c>
+      <c r="N533" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -29720,6 +31339,9 @@
         <v>-0.04000000000002046</v>
       </c>
       <c r="M534" t="n">
+        <v>-0.1123736000000204</v>
+      </c>
+      <c r="N534" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -29775,6 +31397,9 @@
         <v>0.4900000000000091</v>
       </c>
       <c r="M535" t="n">
+        <v>0.4178019000000091</v>
+      </c>
+      <c r="N535" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -29830,6 +31455,9 @@
         <v>0.03999999999996362</v>
       </c>
       <c r="M536" t="n">
+        <v>-0.03208240000003637</v>
+      </c>
+      <c r="N536" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -29885,6 +31513,9 @@
         <v>0.2400000000000091</v>
       </c>
       <c r="M537" t="n">
+        <v>0.1680086000000091</v>
+      </c>
+      <c r="N537" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -29940,6 +31571,9 @@
         <v>0.2400000000000091</v>
       </c>
       <c r="M538" t="n">
+        <v>0.1677668000000091</v>
+      </c>
+      <c r="N538" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -29995,6 +31629,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M539" t="n">
+        <v>0.1277719999999886</v>
+      </c>
+      <c r="N539" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -30050,6 +31687,9 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="M540" t="n">
+        <v>0.07776549999997731</v>
+      </c>
+      <c r="N540" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -30105,6 +31745,9 @@
         <v>-0.160000000000025</v>
       </c>
       <c r="M541" t="n">
+        <v>-0.232194200000025</v>
+      </c>
+      <c r="N541" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -30160,6 +31803,9 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="M542" t="n">
+        <v>0.0778460999999773</v>
+      </c>
+      <c r="N542" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -30215,6 +31861,9 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="M543" t="n">
+        <v>-0.05199920000001818</v>
+      </c>
+      <c r="N543" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -30270,6 +31919,9 @@
         <v>-0.03999999999996362</v>
       </c>
       <c r="M544" t="n">
+        <v>-0.1119549999999636</v>
+      </c>
+      <c r="N544" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -30325,6 +31977,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M545" t="n">
+        <v>0.1081152000000068</v>
+      </c>
+      <c r="N545" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -30372,6 +32027,9 @@
         <v>0</v>
       </c>
       <c r="M546" t="n">
+        <v>-0.07174179999999999</v>
+      </c>
+      <c r="N546" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30427,6 +32085,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M547" t="n">
+        <v>-0.1134776000000125</v>
+      </c>
+      <c r="N547" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -30482,6 +32143,9 @@
         <v>-0.1700000000000017</v>
       </c>
       <c r="M548" t="n">
+        <v>-0.2032241000000017</v>
+      </c>
+      <c r="N548" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -30537,6 +32201,9 @@
         <v>-0.1899999999999977</v>
       </c>
       <c r="M549" t="n">
+        <v>-0.2232266999999977</v>
+      </c>
+      <c r="N549" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -30592,6 +32259,9 @@
         <v>0.269999999999996</v>
       </c>
       <c r="M550" t="n">
+        <v>0.236827899999996</v>
+      </c>
+      <c r="N550" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -30647,6 +32317,9 @@
         <v>-0.230000000000004</v>
       </c>
       <c r="M551" t="n">
+        <v>-0.263055100000004</v>
+      </c>
+      <c r="N551" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -30702,6 +32375,9 @@
         <v>-0.1200000000000188</v>
       </c>
       <c r="M552" t="n">
+        <v>-0.1532852000000188</v>
+      </c>
+      <c r="N552" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -30757,6 +32433,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M553" t="n">
+        <v>0.1466706000000068</v>
+      </c>
+      <c r="N553" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -30812,6 +32491,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M554" t="n">
+        <v>-0.1032682999999932</v>
+      </c>
+      <c r="N554" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -30867,6 +32549,9 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="M555" t="n">
+        <v>0.006743400000006252</v>
+      </c>
+      <c r="N555" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -30922,6 +32607,9 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="M556" t="n">
+        <v>-0.02322670000000909</v>
+      </c>
+      <c r="N556" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -30977,6 +32665,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M557" t="n">
+        <v>-0.0431902999999909</v>
+      </c>
+      <c r="N557" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -31032,6 +32723,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M558" t="n">
+        <v>-0.04318510000000511</v>
+      </c>
+      <c r="N558" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -31087,6 +32781,9 @@
         <v>-8.5</v>
       </c>
       <c r="M559" t="n">
+        <v>-10.170435</v>
+      </c>
+      <c r="N559" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -31142,6 +32839,9 @@
         <v>-7</v>
       </c>
       <c r="M560" t="n">
+        <v>-8.66738</v>
+      </c>
+      <c r="N560" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -31197,6 +32897,9 @@
         <v>0.5</v>
       </c>
       <c r="M561" t="n">
+        <v>-1.166665</v>
+      </c>
+      <c r="N561" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -31252,6 +32955,9 @@
         <v>24</v>
       </c>
       <c r="M562" t="n">
+        <v>22.33145</v>
+      </c>
+      <c r="N562" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -31307,6 +33013,9 @@
         <v>-10</v>
       </c>
       <c r="M563" t="n">
+        <v>-11.66413</v>
+      </c>
+      <c r="N563" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -31362,6 +33071,9 @@
         <v>8.5</v>
       </c>
       <c r="M564" t="n">
+        <v>6.838275</v>
+      </c>
+      <c r="N564" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -31417,6 +33129,9 @@
         <v>24</v>
       </c>
       <c r="M565" t="n">
+        <v>22.34393</v>
+      </c>
+      <c r="N565" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -31472,6 +33187,9 @@
         <v>-7.5</v>
       </c>
       <c r="M566" t="n">
+        <v>-9.173425</v>
+      </c>
+      <c r="N566" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -31527,6 +33245,9 @@
         <v>-4.5</v>
       </c>
       <c r="M567" t="n">
+        <v>-6.173815</v>
+      </c>
+      <c r="N567" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -31582,6 +33303,9 @@
         <v>-2</v>
       </c>
       <c r="M568" t="n">
+        <v>-3.67453</v>
+      </c>
+      <c r="N568" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -31637,6 +33361,9 @@
         <v>5</v>
       </c>
       <c r="M569" t="n">
+        <v>3.32599</v>
+      </c>
+      <c r="N569" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -31692,6 +33419,9 @@
         <v>-6.5</v>
       </c>
       <c r="M570" t="n">
+        <v>-8.175504999999999</v>
+      </c>
+      <c r="N570" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -31747,6 +33477,9 @@
         <v>-13</v>
       </c>
       <c r="M571" t="n">
+        <v>-14.67232</v>
+      </c>
+      <c r="N571" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -31802,6 +33535,9 @@
         <v>-2.5</v>
       </c>
       <c r="M572" t="n">
+        <v>-4.168615</v>
+      </c>
+      <c r="N572" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -31857,6 +33593,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M573" t="n">
+        <v>0.07042899999998863</v>
+      </c>
+      <c r="N573" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -31912,6 +33651,9 @@
         <v>0</v>
       </c>
       <c r="M574" t="n">
+        <v>-0.129363</v>
+      </c>
+      <c r="N574" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31967,6 +33709,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M575" t="n">
+        <v>-0.5294149999999773</v>
+      </c>
+      <c r="N575" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -32022,6 +33767,9 @@
         <v>0.6500000000000341</v>
       </c>
       <c r="M576" t="n">
+        <v>0.5205915000000341</v>
+      </c>
+      <c r="N576" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -32077,6 +33825,9 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="M577" t="n">
+        <v>-0.5792654999999887</v>
+      </c>
+      <c r="N577" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -32132,6 +33883,9 @@
         <v>0.8999999999999773</v>
       </c>
       <c r="M578" t="n">
+        <v>0.7709099999999772</v>
+      </c>
+      <c r="N578" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -32187,6 +33941,9 @@
         <v>0.9000000000000341</v>
       </c>
       <c r="M579" t="n">
+        <v>0.7708710000000342</v>
+      </c>
+      <c r="N579" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -32242,6 +33999,9 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="M580" t="n">
+        <v>-0.2292589999999659</v>
+      </c>
+      <c r="N580" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -32297,6 +34057,9 @@
         <v>0.4499999999999886</v>
       </c>
       <c r="M581" t="n">
+        <v>0.3206694999999886</v>
+      </c>
+      <c r="N581" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -32352,6 +34115,9 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="M582" t="n">
+        <v>0.4205915000000113</v>
+      </c>
+      <c r="N582" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -32407,6 +34173,9 @@
         <v>0</v>
       </c>
       <c r="M583" t="n">
+        <v>-0.129116</v>
+      </c>
+      <c r="N583" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32462,6 +34231,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M584" t="n">
+        <v>-0.02910299999997729</v>
+      </c>
+      <c r="N584" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -32517,6 +34289,9 @@
         <v>0.4000000000000341</v>
       </c>
       <c r="M585" t="n">
+        <v>0.2711310000000341</v>
+      </c>
+      <c r="N585" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -32572,6 +34347,9 @@
         <v>1.300000000000011</v>
       </c>
       <c r="M586" t="n">
+        <v>1.171508000000011</v>
+      </c>
+      <c r="N586" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -32627,6 +34405,9 @@
         <v>-0.3799999999999955</v>
       </c>
       <c r="M587" t="n">
+        <v>-0.4384245999999955</v>
+      </c>
+      <c r="N587" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -32682,6 +34463,9 @@
         <v>0.1899999999999977</v>
       </c>
       <c r="M588" t="n">
+        <v>0.1318080999999977</v>
+      </c>
+      <c r="N588" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -32737,6 +34521,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M589" t="n">
+        <v>-0.08811910000000114</v>
+      </c>
+      <c r="N589" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -32792,6 +34579,9 @@
         <v>-0.07999999999998408</v>
       </c>
       <c r="M590" t="n">
+        <v>-0.1381437999999841</v>
+      </c>
+      <c r="N590" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -32847,6 +34637,9 @@
         <v>0.289999999999992</v>
       </c>
       <c r="M591" t="n">
+        <v>0.231961499999992</v>
+      </c>
+      <c r="N591" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -32902,6 +34695,9 @@
         <v>-0.4500000000000171</v>
       </c>
       <c r="M592" t="n">
+        <v>-0.5078851000000171</v>
+      </c>
+      <c r="N592" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -32957,6 +34753,9 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="M593" t="n">
+        <v>-0.1084050999999829</v>
+      </c>
+      <c r="N593" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -33012,6 +34811,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M594" t="n">
+        <v>-0.03844539999998977</v>
+      </c>
+      <c r="N594" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -33067,6 +34869,9 @@
         <v>-0.660000000000025</v>
       </c>
       <c r="M595" t="n">
+        <v>-0.718377800000025</v>
+      </c>
+      <c r="N595" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -33122,6 +34927,9 @@
         <v>0</v>
       </c>
       <c r="M596" t="n">
+        <v>-0.05827379999999999</v>
+      </c>
+      <c r="N596" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33177,6 +34985,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M597" t="n">
+        <v>-0.1182842000000023</v>
+      </c>
+      <c r="N597" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -33232,6 +35043,9 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="M598" t="n">
+        <v>-0.008267300000017051</v>
+      </c>
+      <c r="N598" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -33287,6 +35101,9 @@
         <v>1</v>
       </c>
       <c r="M599" t="n">
+        <v>0.7380500000000001</v>
+      </c>
+      <c r="N599" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -33342,6 +35159,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M600" t="n">
+        <v>-1.461560000000045</v>
+      </c>
+      <c r="N600" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -33397,6 +35217,9 @@
         <v>0</v>
       </c>
       <c r="M601" t="n">
+        <v>-0.261404</v>
+      </c>
+      <c r="N601" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33452,6 +35275,9 @@
         <v>-1.400000000000091</v>
       </c>
       <c r="M602" t="n">
+        <v>-1.661170000000091</v>
+      </c>
+      <c r="N602" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -33507,6 +35333,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M603" t="n">
+        <v>-0.4609619999999318</v>
+      </c>
+      <c r="N603" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -33562,6 +35391,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M604" t="n">
+        <v>0.5391159999999545</v>
+      </c>
+      <c r="N604" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -33617,6 +35449,9 @@
         <v>1.399999999999977</v>
       </c>
       <c r="M605" t="n">
+        <v>1.139817999999977</v>
+      </c>
+      <c r="N605" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -33672,6 +35507,9 @@
         <v>-2.400000000000091</v>
       </c>
       <c r="M606" t="n">
+        <v>-2.660260000000091</v>
+      </c>
+      <c r="N606" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -33727,6 +35565,9 @@
         <v>-2</v>
       </c>
       <c r="M607" t="n">
+        <v>-2.26182</v>
+      </c>
+      <c r="N607" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -33782,6 +35623,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M608" t="n">
+        <v>-0.6619239999999773</v>
+      </c>
+      <c r="N608" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -33837,6 +35681,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M609" t="n">
+        <v>-1.062703999999955</v>
+      </c>
+      <c r="N609" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -33892,6 +35739,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M610" t="n">
+        <v>-0.4619500000000455</v>
+      </c>
+      <c r="N610" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -33947,6 +35797,9 @@
         <v>0.6000000000000227</v>
       </c>
       <c r="M611" t="n">
+        <v>0.3381540000000227</v>
+      </c>
+      <c r="N611" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -34002,6 +35855,9 @@
         <v>-1.199999999999932</v>
       </c>
       <c r="M612" t="n">
+        <v>-1.461247999999932</v>
+      </c>
+      <c r="N612" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -34049,6 +35905,9 @@
         <v>0</v>
       </c>
       <c r="M613" t="n">
+        <v>-0.261196</v>
+      </c>
+      <c r="N613" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34104,6 +35963,9 @@
         <v>-0.003999999999999559</v>
       </c>
       <c r="M614" t="n">
+        <v>-0.007101019999999559</v>
+      </c>
+      <c r="N614" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -34159,6 +36021,9 @@
         <v>-0.0009999999999994458</v>
       </c>
       <c r="M615" t="n">
+        <v>-0.004099849999999445</v>
+      </c>
+      <c r="N615" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -34214,6 +36079,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M616" t="n">
+        <v>-0.001100239999999332</v>
+      </c>
+      <c r="N616" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -34269,6 +36137,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M617" t="n">
+        <v>-0.001100239999999332</v>
+      </c>
+      <c r="N617" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -34324,6 +36195,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M618" t="n">
+        <v>-0.001100239999999332</v>
+      </c>
+      <c r="N618" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -34379,6 +36253,9 @@
         <v>-0.001999999999998892</v>
       </c>
       <c r="M619" t="n">
+        <v>-0.005100759999998892</v>
+      </c>
+      <c r="N619" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -34434,6 +36311,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M620" t="n">
+        <v>-0.05231539999999602</v>
+      </c>
+      <c r="N620" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -34489,6 +36369,9 @@
         <v>0.2599999999999909</v>
       </c>
       <c r="M621" t="n">
+        <v>0.2276793999999909</v>
+      </c>
+      <c r="N621" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -34544,6 +36427,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M622" t="n">
+        <v>-0.3322478000000114</v>
+      </c>
+      <c r="N622" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -34599,6 +36485,9 @@
         <v>0</v>
       </c>
       <c r="M623" t="n">
+        <v>-0.0322504</v>
+      </c>
+      <c r="N623" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34654,6 +36543,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M624" t="n">
+        <v>-0.1523180000000045</v>
+      </c>
+      <c r="N624" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -34709,6 +36601,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M625" t="n">
+        <v>0.1276299999999966</v>
+      </c>
+      <c r="N625" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -34764,6 +36659,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M626" t="n">
+        <v>0.1076274000000006</v>
+      </c>
+      <c r="N626" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -34819,6 +36717,9 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="M627" t="n">
+        <v>0.06763260000000849</v>
+      </c>
+      <c r="N627" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -34874,6 +36775,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M628" t="n">
+        <v>0.04763000000001251</v>
+      </c>
+      <c r="N628" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -34929,6 +36833,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M629" t="n">
+        <v>-0.1923387999999966</v>
+      </c>
+      <c r="N629" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -34984,6 +36891,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M630" t="n">
+        <v>-0.01231540000000398</v>
+      </c>
+      <c r="N630" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -35039,6 +36949,9 @@
         <v>-0.05999999999998806</v>
       </c>
       <c r="M631" t="n">
+        <v>-0.09229459999998807</v>
+      </c>
+      <c r="N631" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -35086,6 +36999,9 @@
         <v>0</v>
       </c>
       <c r="M632" t="n">
+        <v>-0.032292</v>
+      </c>
+      <c r="N632" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35141,6 +37057,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M633" t="n">
+        <v>-0.2018547999999966</v>
+      </c>
+      <c r="N633" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -35196,6 +37115,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M634" t="n">
+        <v>-0.08183919999999203</v>
+      </c>
+      <c r="N634" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -35251,6 +37173,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M635" t="n">
+        <v>0.1381426000000068</v>
+      </c>
+      <c r="N635" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -35306,6 +37231,9 @@
         <v>-0.5</v>
       </c>
       <c r="M636" t="n">
+        <v>-0.5417689999999999</v>
+      </c>
+      <c r="N636" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -35361,6 +37289,9 @@
         <v>0.2399999999999807</v>
       </c>
       <c r="M637" t="n">
+        <v>0.1984051999999807</v>
+      </c>
+      <c r="N637" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -35416,6 +37347,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M638" t="n">
+        <v>-0.02184179999998977</v>
+      </c>
+      <c r="N638" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -35471,6 +37405,9 @@
         <v>-0.05999999999997385</v>
       </c>
       <c r="M639" t="n">
+        <v>-0.1018313999999738</v>
+      </c>
+      <c r="N639" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -35526,6 +37463,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M640" t="n">
+        <v>0.07811400000000451</v>
+      </c>
+      <c r="N640" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -35581,6 +37521,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M641" t="n">
+        <v>-0.1018158000000023</v>
+      </c>
+      <c r="N641" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -35636,6 +37579,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M642" t="n">
+        <v>-0.08175079999999203</v>
+      </c>
+      <c r="N642" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -35691,6 +37637,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M643" t="n">
+        <v>-0.1017534000000023</v>
+      </c>
+      <c r="N643" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -35738,6 +37687,9 @@
         <v>0</v>
       </c>
       <c r="M644" t="n">
+        <v>-0.0417612</v>
+      </c>
+      <c r="N644" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35793,6 +37745,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M645" t="n">
+        <v>0.01724050000000114</v>
+      </c>
+      <c r="N645" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -35848,6 +37803,9 @@
         <v>-0.0800000000000054</v>
       </c>
       <c r="M646" t="n">
+        <v>-0.0927452000000054</v>
+      </c>
+      <c r="N646" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -35903,6 +37861,9 @@
         <v>0.05999999999999517</v>
       </c>
       <c r="M647" t="n">
+        <v>0.04727299999999517</v>
+      </c>
+      <c r="N647" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -35958,6 +37919,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M648" t="n">
+        <v>-0.05271659999999914</v>
+      </c>
+      <c r="N648" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -36013,6 +37977,9 @@
         <v>0.1550000000000011</v>
       </c>
       <c r="M649" t="n">
+        <v>0.1423048500000011</v>
+      </c>
+      <c r="N649" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -36068,6 +38035,9 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="M650" t="n">
+        <v>0.06220865000000284</v>
+      </c>
+      <c r="N650" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -36123,6 +38093,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M651" t="n">
+        <v>-0.03277899999999602</v>
+      </c>
+      <c r="N651" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36178,6 +38151,9 @@
         <v>0</v>
       </c>
       <c r="M652" t="n">
+        <v>-0.0127764</v>
+      </c>
+      <c r="N652" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36233,6 +38209,9 @@
         <v>0.05000000000000426</v>
       </c>
       <c r="M653" t="n">
+        <v>0.03724310000000427</v>
+      </c>
+      <c r="N653" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -36288,6 +38267,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M654" t="n">
+        <v>-0.02771985000000057</v>
+      </c>
+      <c r="N654" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -36343,6 +38325,9 @@
         <v>-3</v>
       </c>
       <c r="M655" t="n">
+        <v>-3.359398</v>
+      </c>
+      <c r="N655" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -36398,6 +38383,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M656" t="n">
+        <v>-0.9592419999999091</v>
+      </c>
+      <c r="N656" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36453,6 +38441,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M657" t="n">
+        <v>-0.9591899999999091</v>
+      </c>
+      <c r="N657" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36508,6 +38499,9 @@
         <v>-1</v>
       </c>
       <c r="M658" t="n">
+        <v>-1.359346</v>
+      </c>
+      <c r="N658" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -36563,6 +38557,9 @@
         <v>-1.399999999999864</v>
       </c>
       <c r="M659" t="n">
+        <v>-1.758773999999864</v>
+      </c>
+      <c r="N659" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -36618,6 +38615,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M660" t="n">
+        <v>-0.958617999999909</v>
+      </c>
+      <c r="N660" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36673,6 +38673,9 @@
         <v>1</v>
       </c>
       <c r="M661" t="n">
+        <v>0.641642</v>
+      </c>
+      <c r="N661" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -36728,6 +38731,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M662" t="n">
+        <v>-0.5584620000000454</v>
+      </c>
+      <c r="N662" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -36783,6 +38789,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M663" t="n">
+        <v>0.4414079999999546</v>
+      </c>
+      <c r="N663" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -36838,6 +38847,9 @@
         <v>1</v>
       </c>
       <c r="M664" t="n">
+        <v>0.6410180000000001</v>
+      </c>
+      <c r="N664" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -36893,6 +38905,9 @@
         <v>-2.599999999999909</v>
       </c>
       <c r="M665" t="n">
+        <v>-2.958201999999909</v>
+      </c>
+      <c r="N665" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -36948,6 +38963,9 @@
         <v>-1.400000000000091</v>
       </c>
       <c r="M666" t="n">
+        <v>-1.758462000000091</v>
+      </c>
+      <c r="N666" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -37003,6 +39021,9 @@
         <v>-1.400000000000091</v>
       </c>
       <c r="M667" t="n">
+        <v>-1.757890000000091</v>
+      </c>
+      <c r="N667" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -37050,6 +39071,9 @@
         <v>0</v>
       </c>
       <c r="M668" t="n">
+        <v>-0.357604</v>
+      </c>
+      <c r="N668" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37105,6 +39129,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M669" t="n">
+        <v>-0.05536079999999915</v>
+      </c>
+      <c r="N669" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -37160,6 +39187,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M670" t="n">
+        <v>-0.03538940000000312</v>
+      </c>
+      <c r="N670" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -37215,6 +39245,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M671" t="n">
+        <v>0.09462229999999941</v>
+      </c>
+      <c r="N671" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -37270,6 +39303,9 @@
         <v>-0.1399999999999935</v>
       </c>
       <c r="M672" t="n">
+        <v>-0.1553633999999935</v>
+      </c>
+      <c r="N672" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -37325,6 +39361,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M673" t="n">
+        <v>0.01465870000000114</v>
+      </c>
+      <c r="N673" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -37380,6 +39419,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M674" t="n">
+        <v>-0.02533089999999801</v>
+      </c>
+      <c r="N674" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -37435,6 +39477,9 @@
         <v>-0.1600000000000037</v>
       </c>
       <c r="M675" t="n">
+        <v>-0.1753088000000037</v>
+      </c>
+      <c r="N675" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -37490,6 +39535,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M676" t="n">
+        <v>-0.07548820000000227</v>
+      </c>
+      <c r="N676" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -37545,6 +39593,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M677" t="n">
+        <v>-0.05548559999999915</v>
+      </c>
+      <c r="N677" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -37600,6 +39651,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M678" t="n">
+        <v>-0.02548169999999801</v>
+      </c>
+      <c r="N678" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -37655,6 +39709,9 @@
         <v>0</v>
       </c>
       <c r="M679" t="n">
+        <v>-0.01547</v>
+      </c>
+      <c r="N679" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37710,6 +39767,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M680" t="n">
+        <v>-0.05546219999999914</v>
+      </c>
+      <c r="N680" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -37765,6 +39825,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M681" t="n">
+        <v>-0.04545310000000114</v>
+      </c>
+      <c r="N681" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -37820,6 +39883,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M682" t="n">
+        <v>-0.04545310000000114</v>
+      </c>
+      <c r="N682" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -37875,6 +39941,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M683" t="n">
+        <v>0.02455859999999915</v>
+      </c>
+      <c r="N683" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -37930,6 +39999,9 @@
         <v>-0.1700000000000017</v>
       </c>
       <c r="M684" t="n">
+        <v>-0.1948703000000017</v>
+      </c>
+      <c r="N684" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -37985,6 +40057,9 @@
         <v>-0.1300000000000097</v>
       </c>
       <c r="M685" t="n">
+        <v>-0.1548651000000097</v>
+      </c>
+      <c r="N685" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -38040,6 +40115,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M686" t="n">
+        <v>-0.07494309999999715</v>
+      </c>
+      <c r="N686" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -38095,6 +40173,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M687" t="n">
+        <v>0.005046500000001144</v>
+      </c>
+      <c r="N687" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -38150,6 +40231,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M688" t="n">
+        <v>-0.05496910000000114</v>
+      </c>
+      <c r="N688" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -38205,6 +40289,9 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="M689" t="n">
+        <v>0.01501919999999204</v>
+      </c>
+      <c r="N689" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -38260,6 +40347,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M690" t="n">
+        <v>-0.1849807999999966</v>
+      </c>
+      <c r="N690" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -38315,6 +40405,9 @@
         <v>0.05999999999998806</v>
       </c>
       <c r="M691" t="n">
+        <v>0.03508679999998807</v>
+      </c>
+      <c r="N691" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -38370,6 +40463,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M692" t="n">
+        <v>-0.07488849999999715</v>
+      </c>
+      <c r="N692" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -38425,6 +40521,9 @@
         <v>-0.1700000000000017</v>
       </c>
       <c r="M693" t="n">
+        <v>-0.1948859000000017</v>
+      </c>
+      <c r="N693" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -38480,6 +40579,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M694" t="n">
+        <v>-0.05448719999999915</v>
+      </c>
+      <c r="N694" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -38535,6 +40637,9 @@
         <v>-0.1199999999999974</v>
       </c>
       <c r="M695" t="n">
+        <v>-0.1344975999999974</v>
+      </c>
+      <c r="N695" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -38590,6 +40695,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M696" t="n">
+        <v>-0.06456649999999715</v>
+      </c>
+      <c r="N696" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -38645,6 +40753,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M697" t="n">
+        <v>-0.03457039999999602</v>
+      </c>
+      <c r="N697" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -38700,6 +40811,9 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="M698" t="n">
+        <v>-0.05447680000000625</v>
+      </c>
+      <c r="N698" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -38755,6 +40869,9 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="M699" t="n">
+        <v>-0.08448070000000028</v>
+      </c>
+      <c r="N699" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -38810,6 +40927,9 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="M700" t="n">
+        <v>0.05539710000000029</v>
+      </c>
+      <c r="N700" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -38865,6 +40985,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M701" t="n">
+        <v>0.0654113999999983</v>
+      </c>
+      <c r="N701" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -38920,6 +41043,9 @@
         <v>0.1799999999999997</v>
       </c>
       <c r="M702" t="n">
+        <v>0.1654139999999997</v>
+      </c>
+      <c r="N702" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -38975,6 +41101,9 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="M703" t="n">
+        <v>-0.00456389999999488</v>
+      </c>
+      <c r="N703" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -39030,6 +41159,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M704" t="n">
+        <v>-0.03456779999999602</v>
+      </c>
+      <c r="N704" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -39077,6 +41209,9 @@
         <v>0</v>
       </c>
       <c r="M705" t="n">
+        <v>-0.01456</v>
+      </c>
+      <c r="N705" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39132,6 +41267,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M706" t="n">
+        <v>-0.3963479999999852</v>
+      </c>
+      <c r="N706" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -39187,6 +41325,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M707" t="n">
+        <v>-0.1963219999999966</v>
+      </c>
+      <c r="N707" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -39242,6 +41383,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M708" t="n">
+        <v>-0.1963167999999966</v>
+      </c>
+      <c r="N708" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -39297,6 +41441,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M709" t="n">
+        <v>-0.2563453999999989</v>
+      </c>
+      <c r="N709" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -39352,6 +41499,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M710" t="n">
+        <v>-0.1961659999999966</v>
+      </c>
+      <c r="N710" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -39407,6 +41557,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M711" t="n">
+        <v>-0.01679259999998977</v>
+      </c>
+      <c r="N711" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -39462,6 +41615,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M712" t="n">
+        <v>-0.4370292000000057</v>
+      </c>
+      <c r="N712" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -39517,6 +41673,9 @@
         <v>-0.2399999999999807</v>
       </c>
       <c r="M713" t="n">
+        <v>-0.2768991999999807</v>
+      </c>
+      <c r="N713" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -39572,6 +41731,9 @@
         <v>0.4399999999999977</v>
       </c>
       <c r="M714" t="n">
+        <v>0.4030851999999977</v>
+      </c>
+      <c r="N714" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -39627,6 +41789,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M715" t="n">
+        <v>0.08312680000000451</v>
+      </c>
+      <c r="N715" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -39682,6 +41847,9 @@
         <v>-0.1399999999999864</v>
       </c>
       <c r="M716" t="n">
+        <v>-0.1768549999999864</v>
+      </c>
+      <c r="N716" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -39737,6 +41905,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M717" t="n">
+        <v>-0.1968575999999966</v>
+      </c>
+      <c r="N717" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -39784,6 +41955,9 @@
         <v>0</v>
       </c>
       <c r="M718" t="n">
+        <v>-0.0368264</v>
+      </c>
+      <c r="N718" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39839,6 +42013,9 @@
         <v>-0.01600000000000179</v>
       </c>
       <c r="M719" t="n">
+        <v>-0.02123900000000179</v>
+      </c>
+      <c r="N719" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -39894,6 +42071,9 @@
         <v>-0.01200000000000045</v>
       </c>
       <c r="M720" t="n">
+        <v>-0.01724160000000045</v>
+      </c>
+      <c r="N720" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -39949,6 +42129,9 @@
         <v>0.03400000000000247</v>
       </c>
       <c r="M721" t="n">
+        <v>0.02879584000000247</v>
+      </c>
+      <c r="N721" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -40004,6 +42187,9 @@
         <v>0.001000000000001222</v>
       </c>
       <c r="M722" t="n">
+        <v>-0.004160869999998778</v>
+      </c>
+      <c r="N722" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -40059,6 +42245,9 @@
         <v>-0.01599999999999824</v>
       </c>
       <c r="M723" t="n">
+        <v>-0.02118179999999824</v>
+      </c>
+      <c r="N723" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -40114,6 +42303,9 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="M724" t="n">
+        <v>-0.03018218999999858</v>
+      </c>
+      <c r="N724" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -40169,6 +42361,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M725" t="n">
+        <v>0.009810790000000571</v>
+      </c>
+      <c r="N725" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -40224,6 +42419,9 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="M726" t="n">
+        <v>-0.07015592999999773</v>
+      </c>
+      <c r="N726" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -40279,6 +42477,9 @@
         <v>0.03599999999999781</v>
       </c>
       <c r="M727" t="n">
+        <v>0.03084861999999781</v>
+      </c>
+      <c r="N727" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -40334,6 +42535,9 @@
         <v>-0.06700000000000017</v>
       </c>
       <c r="M728" t="n">
+        <v>-0.07215359000000017</v>
+      </c>
+      <c r="N728" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -40381,6 +42585,9 @@
         <v>0</v>
       </c>
       <c r="M729" t="n">
+        <v>-0.005144879999999999</v>
+      </c>
+      <c r="N729" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40436,6 +42643,9 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="M730" t="n">
+        <v>-0.3195394999999773</v>
+      </c>
+      <c r="N730" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -40491,6 +42701,9 @@
         <v>0.1999999999999318</v>
       </c>
       <c r="M731" t="n">
+        <v>0.0307919999999318</v>
+      </c>
+      <c r="N731" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -40546,6 +42759,9 @@
         <v>-7.199999999999932</v>
       </c>
       <c r="M732" t="n">
+        <v>-7.371001999999932</v>
+      </c>
+      <c r="N732" t="n">
         <v>-1.1</v>
       </c>
     </row>
@@ -40601,6 +42817,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M733" t="n">
+        <v>-0.07195099999997728</v>
+      </c>
+      <c r="N733" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -40656,6 +42875,9 @@
         <v>-0.9499999999999318</v>
       </c>
       <c r="M734" t="n">
+        <v>-1.120579499999932</v>
+      </c>
+      <c r="N734" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -40711,6 +42933,9 @@
         <v>-1.849999999999909</v>
       </c>
       <c r="M735" t="n">
+        <v>-2.021762499999909</v>
+      </c>
+      <c r="N735" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -40766,6 +42991,9 @@
         <v>0</v>
       </c>
       <c r="M736" t="n">
+        <v>-0.172068</v>
+      </c>
+      <c r="N736" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40821,6 +43049,9 @@
         <v>1.049999999999955</v>
       </c>
       <c r="M737" t="n">
+        <v>0.878393499999955</v>
+      </c>
+      <c r="N737" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -40876,6 +43107,9 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="M738" t="n">
+        <v>-0.02099550000002269</v>
+      </c>
+      <c r="N738" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -40923,6 +43157,9 @@
         <v>0</v>
       </c>
       <c r="M739" t="n">
+        <v>-0.17095</v>
+      </c>
+      <c r="N739" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40978,6 +43215,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M740" t="n">
+        <v>-0.07037150000000114</v>
+      </c>
+      <c r="N740" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -41033,6 +43273,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M741" t="n">
+        <v>-0.01037929999999885</v>
+      </c>
+      <c r="N741" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -41088,6 +43331,9 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="M742" t="n">
+        <v>-0.0004820000000079552</v>
+      </c>
+      <c r="N742" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -41143,6 +43389,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M743" t="n">
+        <v>0.03963240000001251</v>
+      </c>
+      <c r="N743" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -41198,6 +43447,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M744" t="n">
+        <v>-0.2203312000000068</v>
+      </c>
+      <c r="N744" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -41253,6 +43505,9 @@
         <v>-0.1299999999999955</v>
       </c>
       <c r="M745" t="n">
+        <v>-0.1703064999999955</v>
+      </c>
+      <c r="N745" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -41300,6 +43555,9 @@
         <v>0</v>
       </c>
       <c r="M746" t="n">
+        <v>-0.0401466</v>
+      </c>
+      <c r="N746" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41355,6 +43613,9 @@
         <v>-2.000000000000612e-05</v>
       </c>
       <c r="M747" t="n">
+        <v>-4.491580000000612e-05</v>
+      </c>
+      <c r="N747" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -41410,6 +43671,9 @@
         <v>-5.999999999999062e-05</v>
       </c>
       <c r="M748" t="n">
+        <v>-8.480139999999063e-05</v>
+      </c>
+      <c r="N748" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -41465,6 +43729,9 @@
         <v>-6.000000000000449e-05</v>
       </c>
       <c r="M749" t="n">
+        <v>-8.479100000000448e-05</v>
+      </c>
+      <c r="N749" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -41520,6 +43787,9 @@
         <v>-9.999999999998899e-05</v>
       </c>
       <c r="M750" t="n">
+        <v>-0.000124790999999989</v>
+      </c>
+      <c r="N750" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -41575,6 +43845,9 @@
         <v>-0.0001000000000000029</v>
       </c>
       <c r="M751" t="n">
+        <v>-0.0001247286000000029</v>
+      </c>
+      <c r="N751" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -41630,6 +43903,9 @@
         <v>0.0002999999999999947</v>
       </c>
       <c r="M752" t="n">
+        <v>0.0002753441999999947</v>
+      </c>
+      <c r="N752" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -41685,6 +43961,9 @@
         <v>0</v>
       </c>
       <c r="M753" t="n">
+        <v>-2.45128e-05</v>
+      </c>
+      <c r="N753" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41740,6 +44019,9 @@
         <v>0</v>
       </c>
       <c r="M754" t="n">
+        <v>-2.4778e-05</v>
+      </c>
+      <c r="N754" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41795,6 +44077,9 @@
         <v>-3.999999999999837e-05</v>
       </c>
       <c r="M755" t="n">
+        <v>-6.477799999999837e-05</v>
+      </c>
+      <c r="N755" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -41850,6 +44135,9 @@
         <v>0.0001000000000000029</v>
       </c>
       <c r="M756" t="n">
+        <v>7.52870000000029e-05</v>
+      </c>
+      <c r="N756" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -41905,6 +44193,9 @@
         <v>-0.1700000000000017</v>
       </c>
       <c r="M757" t="n">
+        <v>-0.1949223000000017</v>
+      </c>
+      <c r="N757" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -41960,6 +44251,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M758" t="n">
+        <v>-0.1349196999999994</v>
+      </c>
+      <c r="N758" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -42015,6 +44309,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M759" t="n">
+        <v>-0.05480270000000114</v>
+      </c>
+      <c r="N759" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -42070,6 +44367,9 @@
         <v>-0.1300000000000097</v>
       </c>
       <c r="M760" t="n">
+        <v>-0.1548157000000097</v>
+      </c>
+      <c r="N760" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -42125,6 +44425,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M761" t="n">
+        <v>-0.1647962000000006</v>
+      </c>
+      <c r="N761" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -42180,6 +44483,9 @@
         <v>0.09000000000000341</v>
       </c>
       <c r="M762" t="n">
+        <v>0.06522590000000342</v>
+      </c>
+      <c r="N762" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -42235,6 +44541,9 @@
         <v>0.06999999999999318</v>
       </c>
       <c r="M763" t="n">
+        <v>0.04525969999999318</v>
+      </c>
+      <c r="N763" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -42290,6 +44599,9 @@
         <v>0.2800000000000011</v>
       </c>
       <c r="M764" t="n">
+        <v>0.2553520000000011</v>
+      </c>
+      <c r="N764" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -42345,6 +44657,9 @@
         <v>-4.550000000000182</v>
       </c>
       <c r="M765" t="n">
+        <v>-5.303278500000181</v>
+      </c>
+      <c r="N765" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -42400,6 +44715,9 @@
         <v>1.5</v>
       </c>
       <c r="M766" t="n">
+        <v>0.74704</v>
+      </c>
+      <c r="N766" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -42455,6 +44773,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M767" t="n">
+        <v>-1.352465999999909</v>
+      </c>
+      <c r="N767" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -42510,6 +44831,9 @@
         <v>6.399999999999636</v>
       </c>
       <c r="M768" t="n">
+        <v>5.648534999999636</v>
+      </c>
+      <c r="N768" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -42565,6 +44889,9 @@
         <v>-0.5499999999997272</v>
       </c>
       <c r="M769" t="n">
+        <v>-1.304864499999727</v>
+      </c>
+      <c r="N769" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -42620,6 +44947,9 @@
         <v>0.0500000000001819</v>
       </c>
       <c r="M770" t="n">
+        <v>-0.705163499999818</v>
+      </c>
+      <c r="N770" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42675,6 +45005,9 @@
         <v>-1.849999999999909</v>
       </c>
       <c r="M771" t="n">
+        <v>-2.604760499999909</v>
+      </c>
+      <c r="N771" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -42730,6 +45063,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M772" t="n">
+        <v>-0.356027999999909</v>
+      </c>
+      <c r="N772" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -42776,17 +45112,18 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>295.5</v>
+        <v>0</v>
       </c>
       <c r="K773" t="n">
-        <v>2898.5</v>
+        <v>0</v>
       </c>
       <c r="L773" t="n">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="M773" t="n">
-        <v>880.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -42840,6 +45177,9 @@
         <v>-3.349999999999909</v>
       </c>
       <c r="M774" t="n">
+        <v>-4.104045499999909</v>
+      </c>
+      <c r="N774" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -42895,6 +45235,9 @@
         <v>-0.8000000000001819</v>
       </c>
       <c r="M775" t="n">
+        <v>-1.553324000000182</v>
+      </c>
+      <c r="N775" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -42950,6 +45293,9 @@
         <v>-1.799999999999727</v>
       </c>
       <c r="M776" t="n">
+        <v>-2.552582999999727</v>
+      </c>
+      <c r="N776" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -42997,6 +45343,9 @@
         <v>0</v>
       </c>
       <c r="M777" t="n">
+        <v>-0.7524399999999999</v>
+      </c>
+      <c r="N777" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43052,6 +45401,9 @@
         <v>-0.006000000000000227</v>
       </c>
       <c r="M778" t="n">
+        <v>-0.009090620000000228</v>
+      </c>
+      <c r="N778" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -43107,6 +45459,9 @@
         <v>0.003999999999999559</v>
       </c>
       <c r="M779" t="n">
+        <v>0.0009054799999995585</v>
+      </c>
+      <c r="N779" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -43162,6 +45517,9 @@
         <v>-0.006999999999999673</v>
       </c>
       <c r="M780" t="n">
+        <v>-0.01009516999999967</v>
+      </c>
+      <c r="N780" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -43217,6 +45575,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M781" t="n">
+        <v>-0.001096339999999332</v>
+      </c>
+      <c r="N781" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -43264,6 +45625,9 @@
         <v>0</v>
       </c>
       <c r="M782" t="n">
+        <v>-0.0031096</v>
+      </c>
+      <c r="N782" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43278,7 +45642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,25 +45658,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rq_sum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_percent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>average_percent</t>
         </is>
@@ -43325,19 +45694,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2609.150000000003</v>
+        <v>-51.96277549999672</v>
       </c>
       <c r="C2" t="n">
+        <v>6.150000000003276</v>
+      </c>
+      <c r="D2" t="n">
         <v>76</v>
       </c>
-      <c r="D2" t="n">
-        <v>34.33092105263162</v>
-      </c>
       <c r="E2" t="n">
-        <v>881.0599999999999</v>
+        <v>0.08092105263162205</v>
       </c>
       <c r="F2" t="n">
-        <v>11.59</v>
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -43347,18 +45719,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>-9.353681999999633</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.600000000000364</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>45</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.05777777777778586</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2500000000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -43369,18 +45744,21 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-4.963683599999851</v>
+      </c>
+      <c r="C4" t="n">
         <v>-3.319999999999851</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>44</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.07545454545454207</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-2.29</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -43391,18 +45769,21 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>-4.497778499999966</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.150000000000033</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.02674418604651239</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2399999999999999</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -43413,18 +45794,21 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-0.5860852999999927</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.07000000000000733</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>42</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.001666666666666841</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08999999999999983</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43435,18 +45819,21 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>-56.92899999999999</v>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>42</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.3571428571428572</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.23</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -43457,18 +45844,21 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>-2.951496499999804</v>
+      </c>
+      <c r="C8" t="n">
         <v>-1.589999999999805</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.03974999999999512</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-1.2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -43479,18 +45869,21 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>-0.3403837430000144</v>
+      </c>
+      <c r="C9" t="n">
         <v>-0.1371000000000144</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-0.003515384615384985</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3200000000000001</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -43501,18 +45894,21 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>2.386953999999363</v>
+      </c>
+      <c r="C10" t="n">
         <v>16.19999999999936</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>38</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.4263157894736674</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -43523,18 +45919,21 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0.1473308000000025</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.6300000000000024</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>37</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.01702702702702709</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.25</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -43545,18 +45944,21 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>-1.368134599999972</v>
+      </c>
+      <c r="C12" t="n">
         <v>-0.8199999999999719</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>37</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-0.0221621621621614</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-1.44</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -43567,18 +45969,21 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>-0.004067850800000025</v>
+      </c>
+      <c r="C13" t="n">
         <v>-0.003120000000000026</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>37</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-8.432432432432502e-05</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-3.11</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -43589,18 +45994,21 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>-14.14191550000013</v>
+      </c>
+      <c r="C14" t="n">
         <v>-7.850000000000136</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>36</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-0.2180555555555593</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-1.18</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -43611,18 +46019,21 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>-2.008255599999953</v>
+      </c>
+      <c r="C15" t="n">
         <v>-0.5199999999999534</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>35</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-0.01485714285714152</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-0.32</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -43633,18 +46044,21 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>-2.655666200000014</v>
+      </c>
+      <c r="C16" t="n">
         <v>-1.500000000000014</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>35</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-0.04285714285714327</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-1.19</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -43655,18 +46069,21 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>-0.2899392299999924</v>
+      </c>
+      <c r="C17" t="n">
         <v>-0.1129999999999924</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>33</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-0.003424242424242194</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -43677,18 +46094,21 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>-2.601724700000057</v>
+      </c>
+      <c r="C18" t="n">
         <v>-0.2500000000000568</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>32</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.007812500000001776</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-0.07000000000000002</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -43699,18 +46119,21 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>-2.027498700000061</v>
+      </c>
+      <c r="C19" t="n">
         <v>-0.3700000000000613</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>28</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-0.0132142857142879</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-0.1799999999999999</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -43721,18 +46144,21 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>-0.4827407499999919</v>
+      </c>
+      <c r="C20" t="n">
         <v>-0.2969999999999919</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>24</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-0.01237499999999966</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-0.93</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -43743,18 +46169,21 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>-0.9060653000000296</v>
+      </c>
+      <c r="C21" t="n">
         <v>-0.5300000000000296</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>15</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-0.03533333333333531</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-0.5700000000000001</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -43765,18 +46194,21 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>-0.04202411999999201</v>
+      </c>
+      <c r="C22" t="n">
         <v>-0.007999999999992013</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>11</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-0.0007272727272720012</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-0.06</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -43787,35 +46219,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>-0.4723846999999977</v>
+      </c>
+      <c r="C23" t="n">
         <v>-0.1899999999999978</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>7</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-0.02714285714285682</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-0.12</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>moex</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -43823,6 +46258,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -43831,13 +46269,13 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>-0.0985998</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -43845,24 +46283,34 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>moex</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.0221832</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/total_res/ST14_output.xlsx
+++ b/total_res/ST14_output.xlsx
@@ -45642,7 +45642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45686,6 +45686,11 @@
           <t>average_percent</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -45711,6 +45716,9 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -45736,6 +45744,9 @@
       <c r="G3" t="n">
         <v>0.01</v>
       </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -45761,6 +45772,9 @@
       <c r="G4" t="n">
         <v>-0.05</v>
       </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -45786,6 +45800,9 @@
       <c r="G5" t="n">
         <v>0.01</v>
       </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -45811,6 +45828,9 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -45836,6 +45856,9 @@
       <c r="G7" t="n">
         <v>0.01</v>
       </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -45861,6 +45884,9 @@
       <c r="G8" t="n">
         <v>-0.03</v>
       </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -45886,6 +45912,9 @@
       <c r="G9" t="n">
         <v>0.01</v>
       </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -45911,6 +45940,9 @@
       <c r="G10" t="n">
         <v>0.03</v>
       </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -45936,6 +45968,9 @@
       <c r="G11" t="n">
         <v>0.03</v>
       </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -45961,6 +45996,9 @@
       <c r="G12" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -45986,6 +46024,9 @@
       <c r="G13" t="n">
         <v>-0.08</v>
       </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -46011,6 +46052,9 @@
       <c r="G14" t="n">
         <v>-0.03</v>
       </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -46036,6 +46080,9 @@
       <c r="G15" t="n">
         <v>-0.01</v>
       </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -46061,6 +46108,9 @@
       <c r="G16" t="n">
         <v>-0.03</v>
       </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -46086,6 +46136,9 @@
       <c r="G17" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -46111,6 +46164,9 @@
       <c r="G18" t="n">
         <v>-0</v>
       </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -46136,6 +46192,9 @@
       <c r="G19" t="n">
         <v>-0.01</v>
       </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -46161,6 +46220,9 @@
       <c r="G20" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -46186,6 +46248,9 @@
       <c r="G21" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -46211,6 +46276,9 @@
       <c r="G22" t="n">
         <v>-0.01</v>
       </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -46236,6 +46304,9 @@
       <c r="G23" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -46261,6 +46332,9 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -46286,6 +46360,9 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -46310,6 +46387,9 @@
       </c>
       <c r="G26" t="n">
         <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
